--- a/TP1/Experiencias.xlsx
+++ b/TP1/Experiencias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\IIA2122\TP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E50594A-CCA9-472B-8F1E-12573D4F8AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2917BA7D-ECE0-4684-ADB3-60A30031453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30624" yWindow="1236" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{C55480FD-7791-4B2D-B4AF-FE0D09E33737}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8810" xr2:uid="{C55480FD-7791-4B2D-B4AF-FE0D09E33737}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo Base" sheetId="1" r:id="rId1"/>
@@ -1616,7 +1616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1691,6 +1691,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1727,9 +1809,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1740,6 +1819,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1754,89 +1836,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1857,10 +1872,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1869,26 +1890,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2331,16 +2337,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8570BD73-785E-4F05-B43A-0300EB0BDCE8}">
   <dimension ref="B1:AA53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J38" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:27" ht="31" x14ac:dyDescent="0.7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2350,15 +2356,15 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="3" spans="2:27" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="54" t="s">
+    <row r="3" spans="2:27" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="B3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
     </row>
-    <row r="6" spans="2:27" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2371,21 +2377,21 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="81"/>
+      <c r="E7" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
     </row>
-    <row r="8" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -2393,57 +2399,57 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="45" t="s">
+    <row r="9" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="45" t="s">
+      <c r="I9" s="75"/>
+      <c r="J9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="45" t="s">
+      <c r="K9" s="75"/>
+      <c r="L9" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="46"/>
-      <c r="N9" s="45" t="s">
+      <c r="M9" s="75"/>
+      <c r="N9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="46"/>
-      <c r="P9" s="45" t="s">
+      <c r="O9" s="75"/>
+      <c r="P9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="45" t="s">
+      <c r="Q9" s="75"/>
+      <c r="R9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="46"/>
-      <c r="T9" s="45" t="s">
+      <c r="S9" s="75"/>
+      <c r="T9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="U9" s="46"/>
-      <c r="V9" s="45" t="s">
+      <c r="U9" s="75"/>
+      <c r="V9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="W9" s="46"/>
-      <c r="X9" s="45" t="s">
+      <c r="W9" s="75"/>
+      <c r="X9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="45" t="s">
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AA9" s="46"/>
+      <c r="AA9" s="75"/>
     </row>
-    <row r="10" spans="2:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="s">
+    <row r="10" spans="2:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="50"/>
+      <c r="E10" s="80"/>
       <c r="F10" s="5" t="s">
         <v>2</v>
       </c>
@@ -2511,16 +2517,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="30">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B11" s="60">
         <v>5</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="36">
+      <c r="C11" s="61"/>
+      <c r="D11" s="66">
         <v>50</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="92">
+      <c r="E11" s="67"/>
+      <c r="F11" s="53">
         <f>AVERAGE(I11,K11,M11,O11,Q11,S11,U11,W11,Y11,AA11)</f>
         <v>354.2</v>
       </c>
@@ -2609,14 +2615,14 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="38">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="68">
         <v>75</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="93">
+      <c r="E12" s="69"/>
+      <c r="F12" s="54">
         <f t="shared" ref="F12:F19" si="0">AVERAGE(I12,K12,M12,O12,Q12,S12,U12,W12,Y12,AA12)</f>
         <v>402</v>
       </c>
@@ -2624,95 +2630,95 @@
         <f t="shared" ref="G12:G19" si="1">COUNTIF(H12:Z12,0)/10</f>
         <v>1</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="32">
         <f>CSV!B4</f>
         <v>0</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="33">
         <f>CSV!C4</f>
         <v>432</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="32">
         <f>CSV!D4</f>
         <v>0</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="33">
         <f>CSV!E4</f>
         <v>339</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="32">
         <f>CSV!F4</f>
         <v>0</v>
       </c>
-      <c r="M12" s="60">
+      <c r="M12" s="33">
         <f>CSV!G4</f>
         <v>393</v>
       </c>
-      <c r="N12" s="59">
+      <c r="N12" s="32">
         <f>CSV!H4</f>
         <v>0</v>
       </c>
-      <c r="O12" s="60">
+      <c r="O12" s="33">
         <f>CSV!I4</f>
         <v>447</v>
       </c>
-      <c r="P12" s="59">
+      <c r="P12" s="32">
         <f>CSV!J4</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="60">
+      <c r="Q12" s="33">
         <f>CSV!K4</f>
         <v>223</v>
       </c>
-      <c r="R12" s="59">
+      <c r="R12" s="32">
         <f>CSV!L4</f>
         <v>0</v>
       </c>
-      <c r="S12" s="60">
+      <c r="S12" s="33">
         <f>CSV!M4</f>
         <v>473</v>
       </c>
-      <c r="T12" s="59">
+      <c r="T12" s="32">
         <f>CSV!N4</f>
         <v>0</v>
       </c>
-      <c r="U12" s="60">
+      <c r="U12" s="33">
         <f>CSV!O4</f>
         <v>465</v>
       </c>
-      <c r="V12" s="59">
+      <c r="V12" s="32">
         <f>CSV!P4</f>
         <v>0</v>
       </c>
-      <c r="W12" s="60">
+      <c r="W12" s="33">
         <f>CSV!Q4</f>
         <v>530</v>
       </c>
-      <c r="X12" s="59">
+      <c r="X12" s="32">
         <f>CSV!R4</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="60">
+      <c r="Y12" s="33">
         <f>CSV!S4</f>
         <v>369</v>
       </c>
-      <c r="Z12" s="59">
+      <c r="Z12" s="32">
         <f>CSV!T4</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="60">
+      <c r="AA12" s="33">
         <f>CSV!U4</f>
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="38">
-        <v>100</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="94">
+    <row r="13" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="68">
+        <v>100</v>
+      </c>
+      <c r="E13" s="69"/>
+      <c r="F13" s="55">
         <f t="shared" si="0"/>
         <v>434.9</v>
       </c>
@@ -2720,97 +2726,97 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="34">
         <f>CSV!B5</f>
         <v>0</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="35">
         <f>CSV!C5</f>
         <v>329</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="34">
         <f>CSV!D5</f>
         <v>0</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="35">
         <f>CSV!E5</f>
         <v>479</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="34">
         <f>CSV!F5</f>
         <v>0</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="35">
         <f>CSV!G5</f>
         <v>336</v>
       </c>
-      <c r="N13" s="61">
+      <c r="N13" s="34">
         <f>CSV!H5</f>
         <v>0</v>
       </c>
-      <c r="O13" s="62">
+      <c r="O13" s="35">
         <f>CSV!I5</f>
         <v>433</v>
       </c>
-      <c r="P13" s="61">
+      <c r="P13" s="34">
         <f>CSV!J5</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="62">
+      <c r="Q13" s="35">
         <f>CSV!K5</f>
         <v>463</v>
       </c>
-      <c r="R13" s="61">
+      <c r="R13" s="34">
         <f>CSV!L5</f>
         <v>0</v>
       </c>
-      <c r="S13" s="62">
+      <c r="S13" s="35">
         <f>CSV!M5</f>
         <v>522</v>
       </c>
-      <c r="T13" s="61">
+      <c r="T13" s="34">
         <f>CSV!N5</f>
         <v>0</v>
       </c>
-      <c r="U13" s="62">
+      <c r="U13" s="35">
         <f>CSV!O5</f>
         <v>474</v>
       </c>
-      <c r="V13" s="61">
+      <c r="V13" s="34">
         <f>CSV!P5</f>
         <v>0</v>
       </c>
-      <c r="W13" s="62">
+      <c r="W13" s="35">
         <f>CSV!Q5</f>
         <v>463</v>
       </c>
-      <c r="X13" s="61">
+      <c r="X13" s="34">
         <f>CSV!R5</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="62">
+      <c r="Y13" s="35">
         <f>CSV!S5</f>
         <v>296</v>
       </c>
-      <c r="Z13" s="61">
+      <c r="Z13" s="34">
         <f>CSV!T5</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="62">
+      <c r="AA13" s="35">
         <f>CSV!U5</f>
         <v>554</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="30">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B14" s="60">
         <v>10</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="43">
+      <c r="C14" s="61"/>
+      <c r="D14" s="72">
         <v>50</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="92">
+      <c r="E14" s="73"/>
+      <c r="F14" s="53">
         <f>AVERAGE(I14,K14,M14,O14,Q14,S14,U14,W14,Y14,AA14)</f>
         <v>872.2</v>
       </c>
@@ -2818,95 +2824,95 @@
         <f>COUNTIF(H14:Z14,0)/10</f>
         <v>1</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="32">
         <f>CSV!B6</f>
         <v>0</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="33">
         <f>CSV!C6</f>
         <v>994</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="32">
         <f>CSV!D6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="33">
         <f>CSV!E6</f>
         <v>484</v>
       </c>
-      <c r="L14" s="59">
+      <c r="L14" s="32">
         <f>CSV!F6</f>
         <v>0</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="33">
         <f>CSV!G6</f>
         <v>644</v>
       </c>
-      <c r="N14" s="59">
+      <c r="N14" s="32">
         <f>CSV!H6</f>
         <v>0</v>
       </c>
-      <c r="O14" s="60">
+      <c r="O14" s="33">
         <f>CSV!I6</f>
         <v>1303</v>
       </c>
-      <c r="P14" s="59">
+      <c r="P14" s="32">
         <f>CSV!J6</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="60">
+      <c r="Q14" s="33">
         <f>CSV!K6</f>
         <v>1064</v>
       </c>
-      <c r="R14" s="59">
+      <c r="R14" s="32">
         <f>CSV!L6</f>
         <v>0</v>
       </c>
-      <c r="S14" s="60">
+      <c r="S14" s="33">
         <f>CSV!M6</f>
         <v>728</v>
       </c>
-      <c r="T14" s="59">
+      <c r="T14" s="32">
         <f>CSV!N6</f>
         <v>0</v>
       </c>
-      <c r="U14" s="60">
+      <c r="U14" s="33">
         <f>CSV!O6</f>
         <v>758</v>
       </c>
-      <c r="V14" s="59">
+      <c r="V14" s="32">
         <f>CSV!P6</f>
         <v>0</v>
       </c>
-      <c r="W14" s="60">
+      <c r="W14" s="33">
         <f>CSV!Q6</f>
         <v>1042</v>
       </c>
-      <c r="X14" s="59">
+      <c r="X14" s="32">
         <f>CSV!R6</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="60">
+      <c r="Y14" s="33">
         <f>CSV!S6</f>
         <v>881</v>
       </c>
-      <c r="Z14" s="59">
+      <c r="Z14" s="32">
         <f>CSV!T6</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="60">
+      <c r="AA14" s="33">
         <f>CSV!U6</f>
         <v>824</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="38">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="68">
         <v>75</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="93">
+      <c r="E15" s="69"/>
+      <c r="F15" s="54">
         <f t="shared" si="0"/>
         <v>942.7</v>
       </c>
@@ -2914,95 +2920,95 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="32">
         <f>CSV!B7</f>
         <v>0</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="33">
         <f>CSV!C7</f>
         <v>690</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="32">
         <f>CSV!D7</f>
         <v>0</v>
       </c>
-      <c r="K15" s="60">
+      <c r="K15" s="33">
         <f>CSV!E7</f>
         <v>891</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="32">
         <f>CSV!F7</f>
         <v>0</v>
       </c>
-      <c r="M15" s="60">
+      <c r="M15" s="33">
         <f>CSV!G7</f>
         <v>609</v>
       </c>
-      <c r="N15" s="59">
+      <c r="N15" s="32">
         <f>CSV!H7</f>
         <v>0</v>
       </c>
-      <c r="O15" s="60">
+      <c r="O15" s="33">
         <f>CSV!I7</f>
         <v>724</v>
       </c>
-      <c r="P15" s="59">
+      <c r="P15" s="32">
         <f>CSV!J7</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="60">
+      <c r="Q15" s="33">
         <f>CSV!K7</f>
         <v>1062</v>
       </c>
-      <c r="R15" s="59">
+      <c r="R15" s="32">
         <f>CSV!L7</f>
         <v>0</v>
       </c>
-      <c r="S15" s="60">
+      <c r="S15" s="33">
         <f>CSV!M7</f>
         <v>1044</v>
       </c>
-      <c r="T15" s="59">
+      <c r="T15" s="32">
         <f>CSV!N7</f>
         <v>0</v>
       </c>
-      <c r="U15" s="60">
+      <c r="U15" s="33">
         <f>CSV!O7</f>
         <v>1858</v>
       </c>
-      <c r="V15" s="59">
+      <c r="V15" s="32">
         <f>CSV!P7</f>
         <v>0</v>
       </c>
-      <c r="W15" s="60">
+      <c r="W15" s="33">
         <f>CSV!Q7</f>
         <v>614</v>
       </c>
-      <c r="X15" s="59">
+      <c r="X15" s="32">
         <f>CSV!R7</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="60">
+      <c r="Y15" s="33">
         <f>CSV!S7</f>
         <v>836</v>
       </c>
-      <c r="Z15" s="59">
+      <c r="Z15" s="32">
         <f>CSV!T7</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="60">
+      <c r="AA15" s="33">
         <f>CSV!U7</f>
         <v>1099</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="40">
-        <v>100</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="94">
+    <row r="16" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="70">
+        <v>100</v>
+      </c>
+      <c r="E16" s="71"/>
+      <c r="F16" s="55">
         <f t="shared" si="0"/>
         <v>1037.0999999999999</v>
       </c>
@@ -3010,97 +3016,97 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="34">
         <f>CSV!B8</f>
         <v>0</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="35">
         <f>CSV!C8</f>
         <v>1359</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16" s="34">
         <f>CSV!D8</f>
         <v>0</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="35">
         <f>CSV!E8</f>
         <v>1012</v>
       </c>
-      <c r="L16" s="61">
+      <c r="L16" s="34">
         <f>CSV!F8</f>
         <v>0</v>
       </c>
-      <c r="M16" s="62">
+      <c r="M16" s="35">
         <f>CSV!G8</f>
         <v>1262</v>
       </c>
-      <c r="N16" s="61">
+      <c r="N16" s="34">
         <f>CSV!H8</f>
         <v>0</v>
       </c>
-      <c r="O16" s="62">
+      <c r="O16" s="35">
         <f>CSV!I8</f>
         <v>632</v>
       </c>
-      <c r="P16" s="61">
+      <c r="P16" s="34">
         <f>CSV!J8</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="62">
+      <c r="Q16" s="35">
         <f>CSV!K8</f>
         <v>1023</v>
       </c>
-      <c r="R16" s="61">
+      <c r="R16" s="34">
         <f>CSV!L8</f>
         <v>0</v>
       </c>
-      <c r="S16" s="62">
+      <c r="S16" s="35">
         <f>CSV!M8</f>
         <v>718</v>
       </c>
-      <c r="T16" s="61">
+      <c r="T16" s="34">
         <f>CSV!N8</f>
         <v>0</v>
       </c>
-      <c r="U16" s="62">
+      <c r="U16" s="35">
         <f>CSV!O8</f>
         <v>794</v>
       </c>
-      <c r="V16" s="61">
+      <c r="V16" s="34">
         <f>CSV!P8</f>
         <v>0</v>
       </c>
-      <c r="W16" s="62">
+      <c r="W16" s="35">
         <f>CSV!Q8</f>
         <v>1004</v>
       </c>
-      <c r="X16" s="61">
+      <c r="X16" s="34">
         <f>CSV!R8</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="62">
+      <c r="Y16" s="35">
         <f>CSV!S8</f>
         <v>1681</v>
       </c>
-      <c r="Z16" s="61">
+      <c r="Z16" s="34">
         <f>CSV!T8</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="62">
+      <c r="AA16" s="35">
         <f>CSV!U8</f>
         <v>886</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="30">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B17" s="60">
         <v>20</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="36">
+      <c r="C17" s="61"/>
+      <c r="D17" s="66">
         <v>50</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="92">
+      <c r="E17" s="67"/>
+      <c r="F17" s="53">
         <f>AVERAGE(I17,K17,M17,O17,Q17,S17,U17,W17,Y17,AA17)</f>
         <v>3303.1</v>
       </c>
@@ -3108,95 +3114,95 @@
         <f>COUNTIF(H17:Z17,0)/10</f>
         <v>1</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="32">
         <f>CSV!B9</f>
         <v>0</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="33">
         <f>CSV!C9</f>
         <v>2966</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="32">
         <f>CSV!D9</f>
         <v>0</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="33">
         <f>CSV!E9</f>
         <v>2393</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="32">
         <f>CSV!F9</f>
         <v>0</v>
       </c>
-      <c r="M17" s="60">
+      <c r="M17" s="33">
         <f>CSV!G9</f>
         <v>2986</v>
       </c>
-      <c r="N17" s="59">
+      <c r="N17" s="32">
         <f>CSV!H9</f>
         <v>0</v>
       </c>
-      <c r="O17" s="60">
+      <c r="O17" s="33">
         <f>CSV!I9</f>
         <v>2705</v>
       </c>
-      <c r="P17" s="59">
+      <c r="P17" s="32">
         <f>CSV!J9</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="60">
+      <c r="Q17" s="33">
         <f>CSV!K9</f>
         <v>4178</v>
       </c>
-      <c r="R17" s="59">
+      <c r="R17" s="32">
         <f>CSV!L9</f>
         <v>0</v>
       </c>
-      <c r="S17" s="60">
+      <c r="S17" s="33">
         <f>CSV!M9</f>
         <v>2585</v>
       </c>
-      <c r="T17" s="59">
+      <c r="T17" s="32">
         <f>CSV!N9</f>
         <v>0</v>
       </c>
-      <c r="U17" s="60">
+      <c r="U17" s="33">
         <f>CSV!O9</f>
         <v>2298</v>
       </c>
-      <c r="V17" s="59">
+      <c r="V17" s="32">
         <f>CSV!P9</f>
         <v>0</v>
       </c>
-      <c r="W17" s="60">
+      <c r="W17" s="33">
         <f>CSV!Q9</f>
         <v>2056</v>
       </c>
-      <c r="X17" s="59">
+      <c r="X17" s="32">
         <f>CSV!R9</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="60">
+      <c r="Y17" s="33">
         <f>CSV!S9</f>
         <v>4225</v>
       </c>
-      <c r="Z17" s="59">
+      <c r="Z17" s="32">
         <f>CSV!T9</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="60">
+      <c r="AA17" s="33">
         <f>CSV!U9</f>
         <v>6639</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="38">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="68">
         <v>75</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="93">
+      <c r="E18" s="69"/>
+      <c r="F18" s="54">
         <f t="shared" si="0"/>
         <v>6647.1</v>
       </c>
@@ -3204,95 +3210,95 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="32">
         <f>CSV!B10</f>
         <v>0</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="33">
         <f>CSV!C10</f>
         <v>7796</v>
       </c>
-      <c r="J18" s="59">
+      <c r="J18" s="32">
         <f>CSV!D10</f>
         <v>0</v>
       </c>
-      <c r="K18" s="60">
+      <c r="K18" s="33">
         <f>CSV!E10</f>
         <v>11476</v>
       </c>
-      <c r="L18" s="59">
+      <c r="L18" s="32">
         <f>CSV!F10</f>
         <v>0</v>
       </c>
-      <c r="M18" s="60">
+      <c r="M18" s="33">
         <f>CSV!G10</f>
         <v>1893</v>
       </c>
-      <c r="N18" s="59">
+      <c r="N18" s="32">
         <f>CSV!H10</f>
         <v>0</v>
       </c>
-      <c r="O18" s="60">
+      <c r="O18" s="33">
         <f>CSV!I10</f>
         <v>9911</v>
       </c>
-      <c r="P18" s="59">
+      <c r="P18" s="32">
         <f>CSV!J10</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="60">
+      <c r="Q18" s="33">
         <f>CSV!K10</f>
         <v>6712</v>
       </c>
-      <c r="R18" s="59">
+      <c r="R18" s="32">
         <f>CSV!L10</f>
         <v>0</v>
       </c>
-      <c r="S18" s="60">
+      <c r="S18" s="33">
         <f>CSV!M10</f>
         <v>2211</v>
       </c>
-      <c r="T18" s="59">
+      <c r="T18" s="32">
         <f>CSV!N10</f>
         <v>0</v>
       </c>
-      <c r="U18" s="60">
+      <c r="U18" s="33">
         <f>CSV!O10</f>
         <v>9298</v>
       </c>
-      <c r="V18" s="59">
+      <c r="V18" s="32">
         <f>CSV!P10</f>
         <v>0</v>
       </c>
-      <c r="W18" s="60">
+      <c r="W18" s="33">
         <f>CSV!Q10</f>
         <v>3807</v>
       </c>
-      <c r="X18" s="59">
+      <c r="X18" s="32">
         <f>CSV!R10</f>
         <v>0</v>
       </c>
-      <c r="Y18" s="60">
+      <c r="Y18" s="33">
         <f>CSV!S10</f>
         <v>6670</v>
       </c>
-      <c r="Z18" s="59">
+      <c r="Z18" s="32">
         <f>CSV!T10</f>
         <v>0</v>
       </c>
-      <c r="AA18" s="60">
+      <c r="AA18" s="33">
         <f>CSV!U10</f>
         <v>6697</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="40">
-        <v>100</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="94">
+    <row r="19" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="70">
+        <v>100</v>
+      </c>
+      <c r="E19" s="71"/>
+      <c r="F19" s="55">
         <f t="shared" si="0"/>
         <v>8274.7999999999993</v>
       </c>
@@ -3300,120 +3306,120 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H19" s="61">
+      <c r="H19" s="34">
         <f>CSV!B11</f>
         <v>0</v>
       </c>
-      <c r="I19" s="62">
+      <c r="I19" s="35">
         <f>CSV!C11</f>
         <v>7235</v>
       </c>
-      <c r="J19" s="61">
+      <c r="J19" s="34">
         <f>CSV!D11</f>
         <v>0</v>
       </c>
-      <c r="K19" s="62">
+      <c r="K19" s="35">
         <f>CSV!E11</f>
         <v>5148</v>
       </c>
-      <c r="L19" s="61">
+      <c r="L19" s="34">
         <f>CSV!F11</f>
         <v>0</v>
       </c>
-      <c r="M19" s="62">
+      <c r="M19" s="35">
         <f>CSV!G11</f>
         <v>9262</v>
       </c>
-      <c r="N19" s="61">
+      <c r="N19" s="34">
         <f>CSV!H11</f>
         <v>0</v>
       </c>
-      <c r="O19" s="62">
+      <c r="O19" s="35">
         <f>CSV!I11</f>
         <v>10769</v>
       </c>
-      <c r="P19" s="61">
+      <c r="P19" s="34">
         <f>CSV!J11</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="62">
+      <c r="Q19" s="35">
         <f>CSV!K11</f>
         <v>10177</v>
       </c>
-      <c r="R19" s="61">
+      <c r="R19" s="34">
         <f>CSV!L11</f>
         <v>0</v>
       </c>
-      <c r="S19" s="62">
+      <c r="S19" s="35">
         <f>CSV!M11</f>
         <v>10089</v>
       </c>
-      <c r="T19" s="61">
+      <c r="T19" s="34">
         <f>CSV!N11</f>
         <v>0</v>
       </c>
-      <c r="U19" s="62">
+      <c r="U19" s="35">
         <f>CSV!O11</f>
         <v>5337</v>
       </c>
-      <c r="V19" s="61">
+      <c r="V19" s="34">
         <f>CSV!P11</f>
         <v>0</v>
       </c>
-      <c r="W19" s="62">
+      <c r="W19" s="35">
         <f>CSV!Q11</f>
         <v>12603</v>
       </c>
-      <c r="X19" s="61">
+      <c r="X19" s="34">
         <f>CSV!R11</f>
         <v>0</v>
       </c>
-      <c r="Y19" s="62">
+      <c r="Y19" s="35">
         <f>CSV!S11</f>
         <v>4576</v>
       </c>
-      <c r="Z19" s="61">
+      <c r="Z19" s="34">
         <f>CSV!T11</f>
         <v>0</v>
       </c>
-      <c r="AA19" s="62">
+      <c r="AA19" s="35">
         <f>CSV!U11</f>
         <v>7552</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B23" s="51" t="s">
+    <row r="23" spans="2:27" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42" t="s">
+      <c r="D24" s="83"/>
+      <c r="E24" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="53" t="s">
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="53"/>
+      <c r="I24" s="84"/>
     </row>
-    <row r="25" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -3423,57 +3429,57 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H26" s="45" t="s">
+    <row r="26" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="45" t="s">
+      <c r="I26" s="75"/>
+      <c r="J26" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="46"/>
-      <c r="L26" s="45" t="s">
+      <c r="K26" s="75"/>
+      <c r="L26" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M26" s="46"/>
-      <c r="N26" s="45" t="s">
+      <c r="M26" s="75"/>
+      <c r="N26" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="45" t="s">
+      <c r="O26" s="75"/>
+      <c r="P26" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="45" t="s">
+      <c r="Q26" s="75"/>
+      <c r="R26" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="S26" s="46"/>
-      <c r="T26" s="45" t="s">
+      <c r="S26" s="75"/>
+      <c r="T26" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="U26" s="46"/>
-      <c r="V26" s="45" t="s">
+      <c r="U26" s="75"/>
+      <c r="V26" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="W26" s="46"/>
-      <c r="X26" s="45" t="s">
+      <c r="W26" s="75"/>
+      <c r="X26" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="45" t="s">
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AA26" s="46"/>
+      <c r="AA26" s="75"/>
     </row>
-    <row r="27" spans="2:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="47" t="s">
+    <row r="27" spans="2:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49" t="s">
+      <c r="C27" s="78"/>
+      <c r="D27" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="50"/>
+      <c r="E27" s="80"/>
       <c r="F27" s="5" t="s">
         <v>2</v>
       </c>
@@ -3541,16 +3547,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="30">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B28" s="60">
         <v>5</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="36">
+      <c r="C28" s="61"/>
+      <c r="D28" s="66">
         <v>50</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="95">
+      <c r="E28" s="67"/>
+      <c r="F28" s="56">
         <f>AVERAGE(I28,K28,M28,O28,Q28,S28,U28,W28,Y28,AA28)</f>
         <v>399</v>
       </c>
@@ -3639,14 +3645,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="38">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="68">
         <v>75</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="96">
+      <c r="E29" s="69"/>
+      <c r="F29" s="57">
         <f t="shared" ref="F29:F36" si="2">AVERAGE(I29,K29,M29,O29,Q29,S29,U29,W29,Y29,AA29)</f>
         <v>477.6</v>
       </c>
@@ -3654,95 +3660,95 @@
         <f t="shared" ref="G29:G30" si="3">COUNTIF(H29:Z29,0)/10</f>
         <v>1</v>
       </c>
-      <c r="H29" s="59">
+      <c r="H29" s="32">
         <f>CSV!B15</f>
         <v>0</v>
       </c>
-      <c r="I29" s="60">
+      <c r="I29" s="33">
         <f>CSV!C15</f>
         <v>353</v>
       </c>
-      <c r="J29" s="59">
+      <c r="J29" s="32">
         <f>CSV!D15</f>
         <v>0</v>
       </c>
-      <c r="K29" s="60">
+      <c r="K29" s="33">
         <f>CSV!E15</f>
         <v>512</v>
       </c>
-      <c r="L29" s="59">
+      <c r="L29" s="32">
         <f>CSV!F15</f>
         <v>0</v>
       </c>
-      <c r="M29" s="60">
+      <c r="M29" s="33">
         <f>CSV!G15</f>
         <v>374</v>
       </c>
-      <c r="N29" s="59">
+      <c r="N29" s="32">
         <f>CSV!H15</f>
         <v>0</v>
       </c>
-      <c r="O29" s="60">
+      <c r="O29" s="33">
         <f>CSV!I15</f>
         <v>516</v>
       </c>
-      <c r="P29" s="59">
+      <c r="P29" s="32">
         <f>CSV!J15</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="60">
+      <c r="Q29" s="33">
         <f>CSV!K15</f>
         <v>414</v>
       </c>
-      <c r="R29" s="59">
+      <c r="R29" s="32">
         <f>CSV!L15</f>
         <v>0</v>
       </c>
-      <c r="S29" s="60">
+      <c r="S29" s="33">
         <f>CSV!M15</f>
         <v>414</v>
       </c>
-      <c r="T29" s="59">
+      <c r="T29" s="32">
         <f>CSV!N15</f>
         <v>0</v>
       </c>
-      <c r="U29" s="60">
+      <c r="U29" s="33">
         <f>CSV!O15</f>
         <v>731</v>
       </c>
-      <c r="V29" s="59">
+      <c r="V29" s="32">
         <f>CSV!P15</f>
         <v>0</v>
       </c>
-      <c r="W29" s="60">
+      <c r="W29" s="33">
         <f>CSV!Q15</f>
         <v>661</v>
       </c>
-      <c r="X29" s="59">
+      <c r="X29" s="32">
         <f>CSV!R15</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="60">
+      <c r="Y29" s="33">
         <f>CSV!S15</f>
         <v>364</v>
       </c>
-      <c r="Z29" s="59">
+      <c r="Z29" s="32">
         <f>CSV!T15</f>
         <v>0</v>
       </c>
-      <c r="AA29" s="60">
+      <c r="AA29" s="33">
         <f>CSV!U15</f>
         <v>437</v>
       </c>
     </row>
-    <row r="30" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="38">
-        <v>100</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="97">
+    <row r="30" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="68">
+        <v>100</v>
+      </c>
+      <c r="E30" s="69"/>
+      <c r="F30" s="58">
         <f t="shared" si="2"/>
         <v>392.2</v>
       </c>
@@ -3831,16 +3837,16 @@
         <v>477</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" s="30">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B31" s="60">
         <v>10</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="43">
+      <c r="C31" s="61"/>
+      <c r="D31" s="72">
         <v>50</v>
       </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="95">
+      <c r="E31" s="73"/>
+      <c r="F31" s="56">
         <f t="shared" si="2"/>
         <v>1151.7</v>
       </c>
@@ -3929,14 +3935,14 @@
         <v>968</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="38">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="68">
         <v>75</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="96">
+      <c r="E32" s="69"/>
+      <c r="F32" s="57">
         <f t="shared" si="2"/>
         <v>1318.9</v>
       </c>
@@ -3944,95 +3950,95 @@
         <f t="shared" ref="G32:G33" si="4">COUNTIF(H32:Z32,0)/10</f>
         <v>1</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="32">
         <f>CSV!B18</f>
         <v>0</v>
       </c>
-      <c r="I32" s="60">
+      <c r="I32" s="33">
         <f>CSV!C18</f>
         <v>2106</v>
       </c>
-      <c r="J32" s="59">
+      <c r="J32" s="32">
         <f>CSV!D18</f>
         <v>0</v>
       </c>
-      <c r="K32" s="60">
+      <c r="K32" s="33">
         <f>CSV!E18</f>
         <v>939</v>
       </c>
-      <c r="L32" s="59">
+      <c r="L32" s="32">
         <f>CSV!F18</f>
         <v>0</v>
       </c>
-      <c r="M32" s="60">
+      <c r="M32" s="33">
         <f>CSV!G18</f>
         <v>1475</v>
       </c>
-      <c r="N32" s="59">
+      <c r="N32" s="32">
         <f>CSV!H18</f>
         <v>0</v>
       </c>
-      <c r="O32" s="60">
+      <c r="O32" s="33">
         <f>CSV!I18</f>
         <v>1071</v>
       </c>
-      <c r="P32" s="59">
+      <c r="P32" s="32">
         <f>CSV!J18</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="60">
+      <c r="Q32" s="33">
         <f>CSV!K18</f>
         <v>847</v>
       </c>
-      <c r="R32" s="59">
+      <c r="R32" s="32">
         <f>CSV!L18</f>
         <v>0</v>
       </c>
-      <c r="S32" s="60">
+      <c r="S32" s="33">
         <f>CSV!M18</f>
         <v>1753</v>
       </c>
-      <c r="T32" s="59">
+      <c r="T32" s="32">
         <f>CSV!N18</f>
         <v>0</v>
       </c>
-      <c r="U32" s="60">
+      <c r="U32" s="33">
         <f>CSV!O18</f>
         <v>1519</v>
       </c>
-      <c r="V32" s="59">
+      <c r="V32" s="32">
         <f>CSV!P18</f>
         <v>0</v>
       </c>
-      <c r="W32" s="60">
+      <c r="W32" s="33">
         <f>CSV!Q18</f>
         <v>1454</v>
       </c>
-      <c r="X32" s="59">
+      <c r="X32" s="32">
         <f>CSV!R18</f>
         <v>0</v>
       </c>
-      <c r="Y32" s="60">
+      <c r="Y32" s="33">
         <f>CSV!S18</f>
         <v>1144</v>
       </c>
-      <c r="Z32" s="59">
+      <c r="Z32" s="32">
         <f>CSV!T18</f>
         <v>0</v>
       </c>
-      <c r="AA32" s="60">
+      <c r="AA32" s="33">
         <f>CSV!U18</f>
         <v>881</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="40">
-        <v>100</v>
-      </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="97">
+    <row r="33" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="70">
+        <v>100</v>
+      </c>
+      <c r="E33" s="71"/>
+      <c r="F33" s="58">
         <f t="shared" si="2"/>
         <v>1455</v>
       </c>
@@ -4121,16 +4127,16 @@
         <v>958</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B34" s="30">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B34" s="60">
         <v>20</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="36">
+      <c r="C34" s="61"/>
+      <c r="D34" s="66">
         <v>50</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="95">
+      <c r="E34" s="67"/>
+      <c r="F34" s="56">
         <f t="shared" si="2"/>
         <v>6874.1</v>
       </c>
@@ -4219,14 +4225,14 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="38">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="68">
         <v>75</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="96">
+      <c r="E35" s="69"/>
+      <c r="F35" s="57">
         <f t="shared" si="2"/>
         <v>7315.2</v>
       </c>
@@ -4234,95 +4240,95 @@
         <f t="shared" ref="G35:G36" si="5">COUNTIF(H35:Z35,0)/10</f>
         <v>1</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H35" s="32">
         <f>CSV!B21</f>
         <v>0</v>
       </c>
-      <c r="I35" s="60">
+      <c r="I35" s="33">
         <f>CSV!C21</f>
         <v>10572</v>
       </c>
-      <c r="J35" s="59">
+      <c r="J35" s="32">
         <f>CSV!D21</f>
         <v>0</v>
       </c>
-      <c r="K35" s="60">
+      <c r="K35" s="33">
         <f>CSV!E21</f>
         <v>12793</v>
       </c>
-      <c r="L35" s="59">
+      <c r="L35" s="32">
         <f>CSV!F21</f>
         <v>0</v>
       </c>
-      <c r="M35" s="60">
+      <c r="M35" s="33">
         <f>CSV!G21</f>
         <v>6136</v>
       </c>
-      <c r="N35" s="59">
+      <c r="N35" s="32">
         <f>CSV!H21</f>
         <v>0</v>
       </c>
-      <c r="O35" s="60">
+      <c r="O35" s="33">
         <f>CSV!I21</f>
         <v>5413</v>
       </c>
-      <c r="P35" s="59">
+      <c r="P35" s="32">
         <f>CSV!J21</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="60">
+      <c r="Q35" s="33">
         <f>CSV!K21</f>
         <v>1860</v>
       </c>
-      <c r="R35" s="59">
+      <c r="R35" s="32">
         <f>CSV!L21</f>
         <v>0</v>
       </c>
-      <c r="S35" s="60">
+      <c r="S35" s="33">
         <f>CSV!M21</f>
         <v>13822</v>
       </c>
-      <c r="T35" s="59">
+      <c r="T35" s="32">
         <f>CSV!N21</f>
         <v>0</v>
       </c>
-      <c r="U35" s="60">
+      <c r="U35" s="33">
         <f>CSV!O21</f>
         <v>6228</v>
       </c>
-      <c r="V35" s="59">
+      <c r="V35" s="32">
         <f>CSV!P21</f>
         <v>0</v>
       </c>
-      <c r="W35" s="60">
+      <c r="W35" s="33">
         <f>CSV!Q21</f>
         <v>5345</v>
       </c>
-      <c r="X35" s="59">
+      <c r="X35" s="32">
         <f>CSV!R21</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="60">
+      <c r="Y35" s="33">
         <f>CSV!S21</f>
         <v>7302</v>
       </c>
-      <c r="Z35" s="59">
+      <c r="Z35" s="32">
         <f>CSV!T21</f>
         <v>0</v>
       </c>
-      <c r="AA35" s="60">
+      <c r="AA35" s="33">
         <f>CSV!U21</f>
         <v>3681</v>
       </c>
     </row>
-    <row r="36" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="40">
-        <v>100</v>
-      </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="97">
+    <row r="36" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="70">
+        <v>100</v>
+      </c>
+      <c r="E36" s="71"/>
+      <c r="F36" s="58">
         <f t="shared" si="2"/>
         <v>11235.1</v>
       </c>
@@ -4411,7 +4417,7 @@
         <v>5983</v>
       </c>
     </row>
-    <row r="40" spans="2:27" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:27" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="2" t="s">
         <v>57</v>
       </c>
@@ -4425,33 +4431,33 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="42" t="s">
+    <row r="41" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42" t="s">
+      <c r="C41" s="83"/>
+      <c r="D41" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42" t="s">
+      <c r="E41" s="83"/>
+      <c r="F41" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="52" t="s">
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="52"/>
-      <c r="K41" s="53" t="s">
+      <c r="J41" s="85"/>
+      <c r="K41" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="L41" s="53"/>
+      <c r="L41" s="84"/>
       <c r="M41" s="24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
@@ -4462,138 +4468,138 @@
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
     </row>
-    <row r="43" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="45" t="s">
+    <row r="43" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H43" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="46"/>
-      <c r="J43" s="45" t="s">
+      <c r="I43" s="75"/>
+      <c r="J43" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K43" s="46"/>
-      <c r="L43" s="45" t="s">
+      <c r="K43" s="75"/>
+      <c r="L43" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M43" s="46"/>
-      <c r="N43" s="45" t="s">
+      <c r="M43" s="75"/>
+      <c r="N43" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="46"/>
-      <c r="P43" s="45" t="s">
+      <c r="O43" s="75"/>
+      <c r="P43" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="45" t="s">
+      <c r="Q43" s="75"/>
+      <c r="R43" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="S43" s="46"/>
-      <c r="T43" s="45" t="s">
+      <c r="S43" s="75"/>
+      <c r="T43" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="U43" s="46"/>
-      <c r="V43" s="45" t="s">
+      <c r="U43" s="75"/>
+      <c r="V43" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="W43" s="46"/>
-      <c r="X43" s="45" t="s">
+      <c r="W43" s="75"/>
+      <c r="X43" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="Y43" s="46"/>
-      <c r="Z43" s="45" t="s">
+      <c r="Y43" s="75"/>
+      <c r="Z43" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AA43" s="46"/>
+      <c r="AA43" s="75"/>
     </row>
-    <row r="44" spans="2:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="47" t="s">
+    <row r="44" spans="2:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="49" t="s">
+      <c r="C44" s="78"/>
+      <c r="D44" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="50"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="63" t="s">
+      <c r="H44" s="36" t="s">
         <v>59</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="63" t="s">
+      <c r="J44" s="36" t="s">
         <v>59</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="63" t="s">
+      <c r="L44" s="36" t="s">
         <v>59</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="63" t="s">
+      <c r="N44" s="36" t="s">
         <v>59</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="63" t="s">
+      <c r="P44" s="36" t="s">
         <v>59</v>
       </c>
       <c r="Q44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="63" t="s">
+      <c r="R44" s="36" t="s">
         <v>59</v>
       </c>
       <c r="S44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="63" t="s">
+      <c r="T44" s="36" t="s">
         <v>59</v>
       </c>
       <c r="U44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="V44" s="63" t="s">
+      <c r="V44" s="36" t="s">
         <v>59</v>
       </c>
       <c r="W44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X44" s="63" t="s">
+      <c r="X44" s="36" t="s">
         <v>59</v>
       </c>
       <c r="Y44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z44" s="63" t="s">
+      <c r="Z44" s="36" t="s">
         <v>59</v>
       </c>
       <c r="AA44" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B45" s="30">
-        <v>0</v>
-      </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="36">
-        <v>0</v>
-      </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="95">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B45" s="60">
+        <v>0</v>
+      </c>
+      <c r="C45" s="61"/>
+      <c r="D45" s="66">
+        <v>0</v>
+      </c>
+      <c r="E45" s="67"/>
+      <c r="F45" s="56">
         <f>AVERAGE(I45,K45,M45,O45,Q45,S45,U45,W45,Y45,AA45)</f>
         <v>100</v>
       </c>
-      <c r="G45" s="67">
+      <c r="G45" s="40">
         <f>COUNTIF(H45:Z45,0)/10</f>
         <v>1</v>
       </c>
@@ -4678,208 +4684,208 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="38">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="68">
         <v>10</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="96">
+      <c r="E46" s="69"/>
+      <c r="F46" s="57">
         <f t="shared" ref="F46:F53" si="6">AVERAGE(I46,K46,M46,O46,Q46,S46,U46,W46,Y46,AA46)</f>
         <v>100</v>
       </c>
-      <c r="G46" s="68">
+      <c r="G46" s="41">
         <f t="shared" ref="G46:G47" si="7">COUNTIF(H46:Z46,0)/10</f>
         <v>1</v>
       </c>
-      <c r="H46" s="70">
+      <c r="H46" s="43">
         <f>CSV!B26</f>
         <v>0</v>
       </c>
-      <c r="I46" s="71">
+      <c r="I46" s="44">
         <f>CSV!C26</f>
         <v>100</v>
       </c>
-      <c r="J46" s="70">
+      <c r="J46" s="43">
         <f>CSV!D26</f>
         <v>0</v>
       </c>
-      <c r="K46" s="71">
+      <c r="K46" s="44">
         <f>CSV!E26</f>
         <v>100</v>
       </c>
-      <c r="L46" s="70">
+      <c r="L46" s="43">
         <f>CSV!F26</f>
         <v>0</v>
       </c>
-      <c r="M46" s="71">
+      <c r="M46" s="44">
         <f>CSV!G26</f>
         <v>100</v>
       </c>
-      <c r="N46" s="70">
+      <c r="N46" s="43">
         <f>CSV!H26</f>
         <v>0</v>
       </c>
-      <c r="O46" s="71">
+      <c r="O46" s="44">
         <f>CSV!I26</f>
         <v>100</v>
       </c>
-      <c r="P46" s="70">
+      <c r="P46" s="43">
         <f>CSV!J26</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="71">
+      <c r="Q46" s="44">
         <f>CSV!K26</f>
         <v>100</v>
       </c>
-      <c r="R46" s="70">
+      <c r="R46" s="43">
         <f>CSV!L26</f>
         <v>0</v>
       </c>
-      <c r="S46" s="71">
+      <c r="S46" s="44">
         <f>CSV!M26</f>
         <v>100</v>
       </c>
-      <c r="T46" s="70">
+      <c r="T46" s="43">
         <f>CSV!N26</f>
         <v>0</v>
       </c>
-      <c r="U46" s="71">
+      <c r="U46" s="44">
         <f>CSV!O26</f>
         <v>100</v>
       </c>
-      <c r="V46" s="70">
+      <c r="V46" s="43">
         <f>CSV!P26</f>
         <v>0</v>
       </c>
-      <c r="W46" s="71">
+      <c r="W46" s="44">
         <f>CSV!Q26</f>
         <v>100</v>
       </c>
-      <c r="X46" s="70">
+      <c r="X46" s="43">
         <f>CSV!R26</f>
         <v>0</v>
       </c>
-      <c r="Y46" s="71">
+      <c r="Y46" s="44">
         <f>CSV!S26</f>
         <v>100</v>
       </c>
-      <c r="Z46" s="70">
+      <c r="Z46" s="43">
         <f>CSV!T26</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="71">
+      <c r="AA46" s="44">
         <f>CSV!U26</f>
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="32"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="38">
+    <row r="47" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="68">
         <v>20</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="97">
+      <c r="E47" s="69"/>
+      <c r="F47" s="58">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="G47" s="69">
+      <c r="G47" s="42">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="H47" s="61">
+      <c r="H47" s="34">
         <f>CSV!B27</f>
         <v>0</v>
       </c>
-      <c r="I47" s="62">
+      <c r="I47" s="35">
         <f>CSV!C27</f>
         <v>100</v>
       </c>
-      <c r="J47" s="61">
+      <c r="J47" s="34">
         <f>CSV!D27</f>
         <v>0</v>
       </c>
-      <c r="K47" s="62">
+      <c r="K47" s="35">
         <f>CSV!E27</f>
         <v>100</v>
       </c>
-      <c r="L47" s="61">
+      <c r="L47" s="34">
         <f>CSV!F27</f>
         <v>0</v>
       </c>
-      <c r="M47" s="62">
+      <c r="M47" s="35">
         <f>CSV!G27</f>
         <v>100</v>
       </c>
-      <c r="N47" s="61">
+      <c r="N47" s="34">
         <f>CSV!H27</f>
         <v>0</v>
       </c>
-      <c r="O47" s="62">
+      <c r="O47" s="35">
         <f>CSV!I27</f>
         <v>100</v>
       </c>
-      <c r="P47" s="61">
+      <c r="P47" s="34">
         <f>CSV!J27</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="62">
+      <c r="Q47" s="35">
         <f>CSV!K27</f>
         <v>100</v>
       </c>
-      <c r="R47" s="61">
+      <c r="R47" s="34">
         <f>CSV!L27</f>
         <v>0</v>
       </c>
-      <c r="S47" s="62">
+      <c r="S47" s="35">
         <f>CSV!M27</f>
         <v>100</v>
       </c>
-      <c r="T47" s="61">
+      <c r="T47" s="34">
         <f>CSV!N27</f>
         <v>0</v>
       </c>
-      <c r="U47" s="62">
+      <c r="U47" s="35">
         <f>CSV!O27</f>
         <v>100</v>
       </c>
-      <c r="V47" s="61">
+      <c r="V47" s="34">
         <f>CSV!P27</f>
         <v>0</v>
       </c>
-      <c r="W47" s="62">
+      <c r="W47" s="35">
         <f>CSV!Q27</f>
         <v>100</v>
       </c>
-      <c r="X47" s="61">
+      <c r="X47" s="34">
         <f>CSV!R27</f>
         <v>0</v>
       </c>
-      <c r="Y47" s="62">
+      <c r="Y47" s="35">
         <f>CSV!S27</f>
         <v>100</v>
       </c>
-      <c r="Z47" s="61">
+      <c r="Z47" s="34">
         <f>CSV!T27</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="62">
+      <c r="AA47" s="35">
         <f>CSV!U27</f>
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="30">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B48" s="60">
         <v>5</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="43">
-        <v>0</v>
-      </c>
-      <c r="E48" s="44"/>
-      <c r="F48" s="95">
+      <c r="C48" s="61"/>
+      <c r="D48" s="72">
+        <v>0</v>
+      </c>
+      <c r="E48" s="73"/>
+      <c r="F48" s="56">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
@@ -4968,14 +4974,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="38">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B49" s="62"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="68">
         <v>10</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="96">
+      <c r="E49" s="69"/>
+      <c r="F49" s="57">
         <f t="shared" si="6"/>
         <v>523</v>
       </c>
@@ -4983,95 +4989,95 @@
         <f t="shared" ref="G49:G50" si="8">COUNTIF(H49:Z49,0)/10</f>
         <v>1</v>
       </c>
-      <c r="H49" s="70">
+      <c r="H49" s="43">
         <f>CSV!B29</f>
         <v>0</v>
       </c>
-      <c r="I49" s="71">
+      <c r="I49" s="44">
         <f>CSV!C29</f>
         <v>480</v>
       </c>
-      <c r="J49" s="70">
+      <c r="J49" s="43">
         <f>CSV!D29</f>
         <v>0</v>
       </c>
-      <c r="K49" s="71">
+      <c r="K49" s="44">
         <f>CSV!E29</f>
         <v>690</v>
       </c>
-      <c r="L49" s="70">
+      <c r="L49" s="43">
         <f>CSV!F29</f>
         <v>0</v>
       </c>
-      <c r="M49" s="71">
+      <c r="M49" s="44">
         <f>CSV!G29</f>
         <v>500</v>
       </c>
-      <c r="N49" s="70">
+      <c r="N49" s="43">
         <f>CSV!H29</f>
         <v>0</v>
       </c>
-      <c r="O49" s="71">
+      <c r="O49" s="44">
         <f>CSV!I29</f>
         <v>390</v>
       </c>
-      <c r="P49" s="70">
+      <c r="P49" s="43">
         <f>CSV!J29</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="71">
+      <c r="Q49" s="44">
         <f>CSV!K29</f>
         <v>400</v>
       </c>
-      <c r="R49" s="70">
+      <c r="R49" s="43">
         <f>CSV!L29</f>
         <v>0</v>
       </c>
-      <c r="S49" s="71">
+      <c r="S49" s="44">
         <f>CSV!M29</f>
         <v>760</v>
       </c>
-      <c r="T49" s="70">
+      <c r="T49" s="43">
         <f>CSV!N29</f>
         <v>0</v>
       </c>
-      <c r="U49" s="71">
+      <c r="U49" s="44">
         <f>CSV!O29</f>
         <v>400</v>
       </c>
-      <c r="V49" s="70">
+      <c r="V49" s="43">
         <f>CSV!P29</f>
         <v>0</v>
       </c>
-      <c r="W49" s="71">
+      <c r="W49" s="44">
         <f>CSV!Q29</f>
         <v>620</v>
       </c>
-      <c r="X49" s="70">
+      <c r="X49" s="43">
         <f>CSV!R29</f>
         <v>0</v>
       </c>
-      <c r="Y49" s="71">
+      <c r="Y49" s="44">
         <f>CSV!S29</f>
         <v>500</v>
       </c>
-      <c r="Z49" s="70">
+      <c r="Z49" s="43">
         <f>CSV!T29</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="71">
+      <c r="AA49" s="44">
         <f>CSV!U29</f>
         <v>490</v>
       </c>
     </row>
-    <row r="50" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="32"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="40">
+    <row r="50" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="62"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="70">
         <v>20</v>
       </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="97">
+      <c r="E50" s="71"/>
+      <c r="F50" s="58">
         <f t="shared" si="6"/>
         <v>794</v>
       </c>
@@ -5079,97 +5085,97 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H50" s="61">
+      <c r="H50" s="34">
         <f>CSV!B30</f>
         <v>0</v>
       </c>
-      <c r="I50" s="62">
+      <c r="I50" s="35">
         <f>CSV!C30</f>
         <v>520</v>
       </c>
-      <c r="J50" s="61">
+      <c r="J50" s="34">
         <f>CSV!D30</f>
         <v>0</v>
       </c>
-      <c r="K50" s="62">
+      <c r="K50" s="35">
         <f>CSV!E30</f>
         <v>1290</v>
       </c>
-      <c r="L50" s="61">
+      <c r="L50" s="34">
         <f>CSV!F30</f>
         <v>0</v>
       </c>
-      <c r="M50" s="62">
+      <c r="M50" s="35">
         <f>CSV!G30</f>
         <v>480</v>
       </c>
-      <c r="N50" s="61">
+      <c r="N50" s="34">
         <f>CSV!H30</f>
         <v>0</v>
       </c>
-      <c r="O50" s="62">
+      <c r="O50" s="35">
         <f>CSV!I30</f>
         <v>700</v>
       </c>
-      <c r="P50" s="61">
+      <c r="P50" s="34">
         <f>CSV!J30</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="62">
+      <c r="Q50" s="35">
         <f>CSV!K30</f>
         <v>840</v>
       </c>
-      <c r="R50" s="61">
+      <c r="R50" s="34">
         <f>CSV!L30</f>
         <v>0</v>
       </c>
-      <c r="S50" s="62">
+      <c r="S50" s="35">
         <f>CSV!M30</f>
         <v>820</v>
       </c>
-      <c r="T50" s="61">
+      <c r="T50" s="34">
         <f>CSV!N30</f>
         <v>0</v>
       </c>
-      <c r="U50" s="62">
+      <c r="U50" s="35">
         <f>CSV!O30</f>
         <v>900</v>
       </c>
-      <c r="V50" s="61">
+      <c r="V50" s="34">
         <f>CSV!P30</f>
         <v>0</v>
       </c>
-      <c r="W50" s="62">
+      <c r="W50" s="35">
         <f>CSV!Q30</f>
         <v>890</v>
       </c>
-      <c r="X50" s="61">
+      <c r="X50" s="34">
         <f>CSV!R30</f>
         <v>0</v>
       </c>
-      <c r="Y50" s="62">
+      <c r="Y50" s="35">
         <f>CSV!S30</f>
         <v>1040</v>
       </c>
-      <c r="Z50" s="61">
+      <c r="Z50" s="34">
         <f>CSV!T30</f>
         <v>0</v>
       </c>
-      <c r="AA50" s="62">
+      <c r="AA50" s="35">
         <f>CSV!U30</f>
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B51" s="30">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B51" s="60">
         <v>10</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="36">
-        <v>0</v>
-      </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="95">
+      <c r="C51" s="61"/>
+      <c r="D51" s="66">
+        <v>0</v>
+      </c>
+      <c r="E51" s="67"/>
+      <c r="F51" s="56">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
@@ -5258,14 +5264,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="38">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="68">
         <v>10</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="96">
+      <c r="E52" s="69"/>
+      <c r="F52" s="57">
         <f t="shared" si="6"/>
         <v>806</v>
       </c>
@@ -5273,95 +5279,95 @@
         <f t="shared" ref="G52:G53" si="9">COUNTIF(H52:Z52,0)/10</f>
         <v>1</v>
       </c>
-      <c r="H52" s="70">
+      <c r="H52" s="43">
         <f>CSV!B32</f>
         <v>0</v>
       </c>
-      <c r="I52" s="71">
+      <c r="I52" s="44">
         <f>CSV!C32</f>
         <v>620</v>
       </c>
-      <c r="J52" s="70">
+      <c r="J52" s="43">
         <f>CSV!D32</f>
         <v>0</v>
       </c>
-      <c r="K52" s="71">
+      <c r="K52" s="44">
         <f>CSV!E32</f>
         <v>880</v>
       </c>
-      <c r="L52" s="70">
+      <c r="L52" s="43">
         <f>CSV!F32</f>
         <v>0</v>
       </c>
-      <c r="M52" s="71">
+      <c r="M52" s="44">
         <f>CSV!G32</f>
         <v>1560</v>
       </c>
-      <c r="N52" s="70">
+      <c r="N52" s="43">
         <f>CSV!H32</f>
         <v>0</v>
       </c>
-      <c r="O52" s="71">
+      <c r="O52" s="44">
         <f>CSV!I32</f>
         <v>420</v>
       </c>
-      <c r="P52" s="70">
+      <c r="P52" s="43">
         <f>CSV!J32</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="71">
+      <c r="Q52" s="44">
         <f>CSV!K32</f>
         <v>1090</v>
       </c>
-      <c r="R52" s="70">
+      <c r="R52" s="43">
         <f>CSV!L32</f>
         <v>0</v>
       </c>
-      <c r="S52" s="71">
+      <c r="S52" s="44">
         <f>CSV!M32</f>
         <v>730</v>
       </c>
-      <c r="T52" s="70">
+      <c r="T52" s="43">
         <f>CSV!N32</f>
         <v>0</v>
       </c>
-      <c r="U52" s="71">
+      <c r="U52" s="44">
         <f>CSV!O32</f>
         <v>450</v>
       </c>
-      <c r="V52" s="70">
+      <c r="V52" s="43">
         <f>CSV!P32</f>
         <v>0</v>
       </c>
-      <c r="W52" s="71">
+      <c r="W52" s="44">
         <f>CSV!Q32</f>
         <v>800</v>
       </c>
-      <c r="X52" s="70">
+      <c r="X52" s="43">
         <f>CSV!R32</f>
         <v>0</v>
       </c>
-      <c r="Y52" s="71">
+      <c r="Y52" s="44">
         <f>CSV!S32</f>
         <v>620</v>
       </c>
-      <c r="Z52" s="70">
+      <c r="Z52" s="43">
         <f>CSV!T32</f>
         <v>0</v>
       </c>
-      <c r="AA52" s="71">
+      <c r="AA52" s="44">
         <f>CSV!U32</f>
         <v>890</v>
       </c>
     </row>
-    <row r="53" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="34"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="40">
+    <row r="53" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="64"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="70">
         <v>20</v>
       </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="97">
+      <c r="E53" s="71"/>
+      <c r="F53" s="58">
         <f t="shared" si="6"/>
         <v>2189</v>
       </c>
@@ -5369,159 +5375,89 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="H53" s="61">
+      <c r="H53" s="34">
         <f>CSV!B33</f>
         <v>0</v>
       </c>
-      <c r="I53" s="62">
+      <c r="I53" s="35">
         <f>CSV!C33</f>
         <v>1050</v>
       </c>
-      <c r="J53" s="61">
+      <c r="J53" s="34">
         <f>CSV!D33</f>
         <v>0</v>
       </c>
-      <c r="K53" s="62">
+      <c r="K53" s="35">
         <f>CSV!E33</f>
         <v>1890</v>
       </c>
-      <c r="L53" s="61">
+      <c r="L53" s="34">
         <f>CSV!F33</f>
         <v>0</v>
       </c>
-      <c r="M53" s="62">
+      <c r="M53" s="35">
         <f>CSV!G33</f>
         <v>1150</v>
       </c>
-      <c r="N53" s="61">
+      <c r="N53" s="34">
         <f>CSV!H33</f>
         <v>0</v>
       </c>
-      <c r="O53" s="62">
+      <c r="O53" s="35">
         <f>CSV!I33</f>
         <v>1530</v>
       </c>
-      <c r="P53" s="61">
+      <c r="P53" s="34">
         <f>CSV!J33</f>
         <v>0</v>
       </c>
-      <c r="Q53" s="62">
+      <c r="Q53" s="35">
         <f>CSV!K33</f>
         <v>1380</v>
       </c>
-      <c r="R53" s="61">
+      <c r="R53" s="34">
         <f>CSV!L33</f>
         <v>0</v>
       </c>
-      <c r="S53" s="62">
+      <c r="S53" s="35">
         <f>CSV!M33</f>
         <v>3500</v>
       </c>
-      <c r="T53" s="61">
+      <c r="T53" s="34">
         <f>CSV!N33</f>
         <v>0</v>
       </c>
-      <c r="U53" s="62">
+      <c r="U53" s="35">
         <f>CSV!O33</f>
         <v>2160</v>
       </c>
-      <c r="V53" s="61">
+      <c r="V53" s="34">
         <f>CSV!P33</f>
         <v>0</v>
       </c>
-      <c r="W53" s="62">
+      <c r="W53" s="35">
         <f>CSV!Q33</f>
         <v>1770</v>
       </c>
-      <c r="X53" s="61">
+      <c r="X53" s="34">
         <f>CSV!R33</f>
         <v>0</v>
       </c>
-      <c r="Y53" s="62">
+      <c r="Y53" s="35">
         <f>CSV!S33</f>
         <v>4310</v>
       </c>
-      <c r="Z53" s="61">
+      <c r="Z53" s="34">
         <f>CSV!T33</f>
         <v>0</v>
       </c>
-      <c r="AA53" s="62">
+      <c r="AA53" s="35">
         <f>CSV!U33</f>
         <v>3150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B11:C13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B14:C16"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B34:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B31:C33"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:U43"/>
     <mergeCell ref="B51:C53"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -5536,6 +5472,76 @@
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D50:E50"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="B34:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B31:C33"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B11:C13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B14:C16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5547,13 +5553,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856D96F1-97B5-4091-B33C-9BDDA905378C}">
   <dimension ref="B1:AL53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:38" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:38" ht="31" x14ac:dyDescent="0.7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5563,15 +5569,15 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="3" spans="2:38" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="54" t="s">
+    <row r="3" spans="2:38" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="B3" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
     </row>
-    <row r="6" spans="2:38" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:38" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
@@ -5585,32 +5591,32 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="81"/>
+      <c r="E7" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="24" t="s">
         <v>47</v>
       </c>
       <c r="I7" s="24"/>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="53"/>
+      <c r="K7" s="84"/>
       <c r="L7" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -5618,74 +5624,74 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="45" t="s">
+    <row r="9" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I9" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="45" t="s">
+      <c r="J9" s="86"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="56"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="45" t="s">
+      <c r="M9" s="86"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="45" t="s">
+      <c r="P9" s="86"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="56"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="45" t="s">
+      <c r="S9" s="86"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="V9" s="56"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="45" t="s">
+      <c r="V9" s="86"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="45" t="s">
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="45" t="s">
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="45" t="s">
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="45" t="s">
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="46"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="75"/>
     </row>
-    <row r="10" spans="2:38" s="74" customFormat="1" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="57" t="s">
+    <row r="10" spans="2:38" s="45" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="72" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="75" t="s">
+      <c r="E10" s="96"/>
+      <c r="F10" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="46" t="s">
         <v>68</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -5779,24 +5785,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B11" s="30">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B11" s="60">
         <v>25</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="36">
+      <c r="C11" s="61"/>
+      <c r="D11" s="66">
         <v>50</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="95">
+      <c r="E11" s="67"/>
+      <c r="F11" s="56">
         <f>AVERAGE(K11,N11,Q11,T11,W11,Z11,AC11,AF11,AI11,AL11)</f>
         <v>10000</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="49">
         <f>AVERAGE(I11,L11,O11,R11,U11,X11,AA11,AD11,AG11,AJ11)</f>
         <v>0.5</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="49">
         <f>AVERAGE(J11,M11,P11,S11,V11,Y11,AB11,AE11,AH11,AK11)</f>
         <v>23.7</v>
       </c>
@@ -5921,162 +5927,162 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="38">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="68">
         <v>75</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="96">
+      <c r="E12" s="69"/>
+      <c r="F12" s="57">
         <f t="shared" ref="F12:F19" si="0">AVERAGE(K12,N12,Q12,T12,W12,Z12,AC12,AF12,AI12,AL12)</f>
         <v>10000</v>
       </c>
-      <c r="G12" s="79">
+      <c r="G12" s="50">
         <f t="shared" ref="G12:H19" si="1">AVERAGE(I12,L12,O12,R12,U12,X12,AA12,AD12,AG12,AJ12)</f>
         <v>1.6</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="50">
         <f t="shared" si="1"/>
         <v>23.7</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="32">
         <f>CSV!B37</f>
         <v>0</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="47">
         <f>CSV!C37</f>
         <v>24</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="33">
         <f>CSV!D37</f>
         <v>10000</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="32">
         <f>CSV!E37</f>
         <v>7</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="47">
         <f>CSV!F37</f>
         <v>25</v>
       </c>
-      <c r="N12" s="60">
+      <c r="N12" s="33">
         <f>CSV!G37</f>
         <v>10000</v>
       </c>
-      <c r="O12" s="59">
+      <c r="O12" s="32">
         <f>CSV!H37</f>
         <v>0</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="47">
         <f>CSV!I37</f>
         <v>23</v>
       </c>
-      <c r="Q12" s="60">
+      <c r="Q12" s="33">
         <f>CSV!J37</f>
         <v>10000</v>
       </c>
-      <c r="R12" s="59">
+      <c r="R12" s="32">
         <f>CSV!K37</f>
         <v>0</v>
       </c>
-      <c r="S12" s="76">
+      <c r="S12" s="47">
         <f>CSV!L37</f>
         <v>22</v>
       </c>
-      <c r="T12" s="60">
+      <c r="T12" s="33">
         <f>CSV!M37</f>
         <v>10000</v>
       </c>
-      <c r="U12" s="59">
+      <c r="U12" s="32">
         <f>CSV!N37</f>
         <v>0</v>
       </c>
-      <c r="V12" s="76">
+      <c r="V12" s="47">
         <f>CSV!O37</f>
         <v>25</v>
       </c>
-      <c r="W12" s="60">
+      <c r="W12" s="33">
         <f>CSV!P37</f>
         <v>10000</v>
       </c>
-      <c r="X12" s="59">
+      <c r="X12" s="32">
         <f>CSV!Q37</f>
         <v>1</v>
       </c>
-      <c r="Y12" s="76">
+      <c r="Y12" s="47">
         <f>CSV!R37</f>
         <v>25</v>
       </c>
-      <c r="Z12" s="60">
+      <c r="Z12" s="33">
         <f>CSV!S37</f>
         <v>10000</v>
       </c>
-      <c r="AA12" s="59">
+      <c r="AA12" s="32">
         <f>CSV!T37</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="76">
+      <c r="AB12" s="47">
         <f>CSV!U37</f>
         <v>24</v>
       </c>
-      <c r="AC12" s="60">
+      <c r="AC12" s="33">
         <f>CSV!V37</f>
         <v>10000</v>
       </c>
-      <c r="AD12" s="59">
+      <c r="AD12" s="32">
         <f>CSV!W37</f>
         <v>2</v>
       </c>
-      <c r="AE12" s="76">
+      <c r="AE12" s="47">
         <f>CSV!X37</f>
         <v>25</v>
       </c>
-      <c r="AF12" s="60">
+      <c r="AF12" s="33">
         <f>CSV!Y37</f>
         <v>10000</v>
       </c>
-      <c r="AG12" s="59">
+      <c r="AG12" s="32">
         <f>CSV!Z37</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="76">
+      <c r="AH12" s="47">
         <f>CSV!AA37</f>
         <v>19</v>
       </c>
-      <c r="AI12" s="60">
+      <c r="AI12" s="33">
         <f>CSV!AB37</f>
         <v>10000</v>
       </c>
-      <c r="AJ12" s="59">
+      <c r="AJ12" s="32">
         <f>CSV!AC37</f>
         <v>6</v>
       </c>
-      <c r="AK12" s="76">
+      <c r="AK12" s="47">
         <f>CSV!AD37</f>
         <v>25</v>
       </c>
-      <c r="AL12" s="60">
+      <c r="AL12" s="33">
         <f>CSV!AE37</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="38">
-        <v>100</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="97">
+    <row r="13" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="68">
+        <v>100</v>
+      </c>
+      <c r="E13" s="69"/>
+      <c r="F13" s="58">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G13" s="80">
+      <c r="G13" s="51">
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="H13" s="80">
+      <c r="H13" s="51">
         <f t="shared" si="1"/>
         <v>24.6</v>
       </c>
@@ -6084,7 +6090,7 @@
         <f>CSV!B38</f>
         <v>2</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="48">
         <f>CSV!C38</f>
         <v>25</v>
       </c>
@@ -6096,7 +6102,7 @@
         <f>CSV!E38</f>
         <v>2</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="48">
         <f>CSV!F38</f>
         <v>24</v>
       </c>
@@ -6108,7 +6114,7 @@
         <f>CSV!H38</f>
         <v>0</v>
       </c>
-      <c r="P13" s="77">
+      <c r="P13" s="48">
         <f>CSV!I38</f>
         <v>25</v>
       </c>
@@ -6120,7 +6126,7 @@
         <f>CSV!K38</f>
         <v>0</v>
       </c>
-      <c r="S13" s="77">
+      <c r="S13" s="48">
         <f>CSV!L38</f>
         <v>24</v>
       </c>
@@ -6132,7 +6138,7 @@
         <f>CSV!N38</f>
         <v>2</v>
       </c>
-      <c r="V13" s="77">
+      <c r="V13" s="48">
         <f>CSV!O38</f>
         <v>25</v>
       </c>
@@ -6144,7 +6150,7 @@
         <f>CSV!Q38</f>
         <v>2</v>
       </c>
-      <c r="Y13" s="77">
+      <c r="Y13" s="48">
         <f>CSV!R38</f>
         <v>25</v>
       </c>
@@ -6156,7 +6162,7 @@
         <f>CSV!T38</f>
         <v>2</v>
       </c>
-      <c r="AB13" s="77">
+      <c r="AB13" s="48">
         <f>CSV!U38</f>
         <v>25</v>
       </c>
@@ -6168,7 +6174,7 @@
         <f>CSV!W38</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="77">
+      <c r="AE13" s="48">
         <f>CSV!X38</f>
         <v>23</v>
       </c>
@@ -6180,7 +6186,7 @@
         <f>CSV!Z38</f>
         <v>3</v>
       </c>
-      <c r="AH13" s="77">
+      <c r="AH13" s="48">
         <f>CSV!AA38</f>
         <v>25</v>
       </c>
@@ -6192,7 +6198,7 @@
         <f>CSV!AC38</f>
         <v>3</v>
       </c>
-      <c r="AK13" s="77">
+      <c r="AK13" s="48">
         <f>CSV!AD38</f>
         <v>25</v>
       </c>
@@ -6201,24 +6207,24 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B14" s="30">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B14" s="60">
         <v>50</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="43">
+      <c r="C14" s="61"/>
+      <c r="D14" s="72">
         <v>50</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="98">
+      <c r="E14" s="73"/>
+      <c r="F14" s="59">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G14" s="52">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H14" s="52">
         <f t="shared" si="1"/>
         <v>49.9</v>
       </c>
@@ -6343,162 +6349,162 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="38">
+    <row r="15" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="68">
         <v>75</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="96">
+      <c r="E15" s="69"/>
+      <c r="F15" s="57">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G15" s="79">
+      <c r="G15" s="50">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="H15" s="79">
+      <c r="H15" s="50">
         <f t="shared" si="1"/>
         <v>49.7</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="32">
         <f>CSV!B40</f>
         <v>3</v>
       </c>
-      <c r="J15" s="76">
+      <c r="J15" s="47">
         <f>CSV!C40</f>
         <v>50</v>
       </c>
-      <c r="K15" s="60">
+      <c r="K15" s="33">
         <f>CSV!D40</f>
         <v>10000</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="32">
         <f>CSV!E40</f>
         <v>0</v>
       </c>
-      <c r="M15" s="76">
+      <c r="M15" s="47">
         <f>CSV!F40</f>
         <v>50</v>
       </c>
-      <c r="N15" s="60">
+      <c r="N15" s="33">
         <f>CSV!G40</f>
         <v>10000</v>
       </c>
-      <c r="O15" s="59">
+      <c r="O15" s="32">
         <f>CSV!H40</f>
         <v>0</v>
       </c>
-      <c r="P15" s="76">
+      <c r="P15" s="47">
         <f>CSV!I40</f>
         <v>50</v>
       </c>
-      <c r="Q15" s="60">
+      <c r="Q15" s="33">
         <f>CSV!J40</f>
         <v>10000</v>
       </c>
-      <c r="R15" s="59">
+      <c r="R15" s="32">
         <f>CSV!K40</f>
         <v>0</v>
       </c>
-      <c r="S15" s="76">
+      <c r="S15" s="47">
         <f>CSV!L40</f>
         <v>50</v>
       </c>
-      <c r="T15" s="60">
+      <c r="T15" s="33">
         <f>CSV!M40</f>
         <v>10000</v>
       </c>
-      <c r="U15" s="59">
+      <c r="U15" s="32">
         <f>CSV!N40</f>
         <v>1</v>
       </c>
-      <c r="V15" s="76">
+      <c r="V15" s="47">
         <f>CSV!O40</f>
         <v>49</v>
       </c>
-      <c r="W15" s="60">
+      <c r="W15" s="33">
         <f>CSV!P40</f>
         <v>10000</v>
       </c>
-      <c r="X15" s="59">
+      <c r="X15" s="32">
         <f>CSV!Q40</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="76">
+      <c r="Y15" s="47">
         <f>CSV!R40</f>
         <v>49</v>
       </c>
-      <c r="Z15" s="60">
+      <c r="Z15" s="33">
         <f>CSV!S40</f>
         <v>10000</v>
       </c>
-      <c r="AA15" s="59">
+      <c r="AA15" s="32">
         <f>CSV!T40</f>
         <v>1</v>
       </c>
-      <c r="AB15" s="76">
+      <c r="AB15" s="47">
         <f>CSV!U40</f>
         <v>50</v>
       </c>
-      <c r="AC15" s="60">
+      <c r="AC15" s="33">
         <f>CSV!V40</f>
         <v>10000</v>
       </c>
-      <c r="AD15" s="59">
+      <c r="AD15" s="32">
         <f>CSV!W40</f>
         <v>1</v>
       </c>
-      <c r="AE15" s="76">
+      <c r="AE15" s="47">
         <f>CSV!X40</f>
         <v>50</v>
       </c>
-      <c r="AF15" s="60">
+      <c r="AF15" s="33">
         <f>CSV!Y40</f>
         <v>10000</v>
       </c>
-      <c r="AG15" s="59">
+      <c r="AG15" s="32">
         <f>CSV!Z40</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="76">
+      <c r="AH15" s="47">
         <f>CSV!AA40</f>
         <v>50</v>
       </c>
-      <c r="AI15" s="60">
+      <c r="AI15" s="33">
         <f>CSV!AB40</f>
         <v>10000</v>
       </c>
-      <c r="AJ15" s="59">
+      <c r="AJ15" s="32">
         <f>CSV!AC40</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="76">
+      <c r="AK15" s="47">
         <f>CSV!AD40</f>
         <v>49</v>
       </c>
-      <c r="AL15" s="60">
+      <c r="AL15" s="33">
         <f>CSV!AE40</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="40">
-        <v>100</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="97">
+    <row r="16" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="70">
+        <v>100</v>
+      </c>
+      <c r="E16" s="71"/>
+      <c r="F16" s="58">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G16" s="80">
+      <c r="G16" s="51">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="H16" s="80">
+      <c r="H16" s="51">
         <f t="shared" si="1"/>
         <v>49.4</v>
       </c>
@@ -6506,7 +6512,7 @@
         <f>CSV!B41</f>
         <v>0</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="48">
         <f>CSV!C41</f>
         <v>50</v>
       </c>
@@ -6518,7 +6524,7 @@
         <f>CSV!E41</f>
         <v>1</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="48">
         <f>CSV!F41</f>
         <v>48</v>
       </c>
@@ -6530,7 +6536,7 @@
         <f>CSV!H41</f>
         <v>1</v>
       </c>
-      <c r="P16" s="77">
+      <c r="P16" s="48">
         <f>CSV!I41</f>
         <v>50</v>
       </c>
@@ -6542,7 +6548,7 @@
         <f>CSV!K41</f>
         <v>0</v>
       </c>
-      <c r="S16" s="77">
+      <c r="S16" s="48">
         <f>CSV!L41</f>
         <v>47</v>
       </c>
@@ -6554,7 +6560,7 @@
         <f>CSV!N41</f>
         <v>2</v>
       </c>
-      <c r="V16" s="77">
+      <c r="V16" s="48">
         <f>CSV!O41</f>
         <v>49</v>
       </c>
@@ -6566,7 +6572,7 @@
         <f>CSV!Q41</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="77">
+      <c r="Y16" s="48">
         <f>CSV!R41</f>
         <v>50</v>
       </c>
@@ -6578,7 +6584,7 @@
         <f>CSV!T41</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="77">
+      <c r="AB16" s="48">
         <f>CSV!U41</f>
         <v>50</v>
       </c>
@@ -6590,7 +6596,7 @@
         <f>CSV!W41</f>
         <v>3</v>
       </c>
-      <c r="AE16" s="77">
+      <c r="AE16" s="48">
         <f>CSV!X41</f>
         <v>50</v>
       </c>
@@ -6602,7 +6608,7 @@
         <f>CSV!Z41</f>
         <v>1</v>
       </c>
-      <c r="AH16" s="77">
+      <c r="AH16" s="48">
         <f>CSV!AA41</f>
         <v>50</v>
       </c>
@@ -6614,7 +6620,7 @@
         <f>CSV!AC41</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="77">
+      <c r="AK16" s="48">
         <f>CSV!AD41</f>
         <v>50</v>
       </c>
@@ -6623,24 +6629,24 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="30">
-        <v>100</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="36">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B17" s="60">
+        <v>100</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="66">
         <v>50</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="98">
+      <c r="E17" s="67"/>
+      <c r="F17" s="59">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G17" s="81">
+      <c r="G17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="81">
+      <c r="H17" s="52">
         <f t="shared" si="1"/>
         <v>98.7</v>
       </c>
@@ -6765,162 +6771,162 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="38">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="68">
         <v>75</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="96">
+      <c r="E18" s="69"/>
+      <c r="F18" s="57">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G18" s="79">
+      <c r="G18" s="50">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="H18" s="79">
+      <c r="H18" s="50">
         <f t="shared" si="1"/>
         <v>99.8</v>
       </c>
-      <c r="I18" s="59">
+      <c r="I18" s="32">
         <f>CSV!B43</f>
         <v>0</v>
       </c>
-      <c r="J18" s="76">
+      <c r="J18" s="47">
         <f>CSV!C43</f>
         <v>100</v>
       </c>
-      <c r="K18" s="60">
+      <c r="K18" s="33">
         <f>CSV!D43</f>
         <v>10000</v>
       </c>
-      <c r="L18" s="59">
+      <c r="L18" s="32">
         <f>CSV!E43</f>
         <v>0</v>
       </c>
-      <c r="M18" s="76">
+      <c r="M18" s="47">
         <f>CSV!F43</f>
         <v>100</v>
       </c>
-      <c r="N18" s="60">
+      <c r="N18" s="33">
         <f>CSV!G43</f>
         <v>10000</v>
       </c>
-      <c r="O18" s="59">
+      <c r="O18" s="32">
         <f>CSV!H43</f>
         <v>0</v>
       </c>
-      <c r="P18" s="76">
+      <c r="P18" s="47">
         <f>CSV!I43</f>
         <v>100</v>
       </c>
-      <c r="Q18" s="60">
+      <c r="Q18" s="33">
         <f>CSV!J43</f>
         <v>10000</v>
       </c>
-      <c r="R18" s="59">
+      <c r="R18" s="32">
         <f>CSV!K43</f>
         <v>0</v>
       </c>
-      <c r="S18" s="76">
+      <c r="S18" s="47">
         <f>CSV!L43</f>
         <v>100</v>
       </c>
-      <c r="T18" s="60">
+      <c r="T18" s="33">
         <f>CSV!M43</f>
         <v>10000</v>
       </c>
-      <c r="U18" s="59">
+      <c r="U18" s="32">
         <f>CSV!N43</f>
         <v>0</v>
       </c>
-      <c r="V18" s="76">
+      <c r="V18" s="47">
         <f>CSV!O43</f>
         <v>100</v>
       </c>
-      <c r="W18" s="60">
+      <c r="W18" s="33">
         <f>CSV!P43</f>
         <v>10000</v>
       </c>
-      <c r="X18" s="59">
+      <c r="X18" s="32">
         <f>CSV!Q43</f>
         <v>0</v>
       </c>
-      <c r="Y18" s="76">
+      <c r="Y18" s="47">
         <f>CSV!R43</f>
         <v>100</v>
       </c>
-      <c r="Z18" s="60">
+      <c r="Z18" s="33">
         <f>CSV!S43</f>
         <v>10000</v>
       </c>
-      <c r="AA18" s="59">
+      <c r="AA18" s="32">
         <f>CSV!T43</f>
         <v>0</v>
       </c>
-      <c r="AB18" s="76">
+      <c r="AB18" s="47">
         <f>CSV!U43</f>
         <v>100</v>
       </c>
-      <c r="AC18" s="60">
+      <c r="AC18" s="33">
         <f>CSV!V43</f>
         <v>10000</v>
       </c>
-      <c r="AD18" s="59">
+      <c r="AD18" s="32">
         <f>CSV!W43</f>
         <v>0</v>
       </c>
-      <c r="AE18" s="76">
+      <c r="AE18" s="47">
         <f>CSV!X43</f>
         <v>100</v>
       </c>
-      <c r="AF18" s="60">
+      <c r="AF18" s="33">
         <f>CSV!Y43</f>
         <v>10000</v>
       </c>
-      <c r="AG18" s="59">
+      <c r="AG18" s="32">
         <f>CSV!Z43</f>
         <v>0</v>
       </c>
-      <c r="AH18" s="76">
+      <c r="AH18" s="47">
         <f>CSV!AA43</f>
         <v>98</v>
       </c>
-      <c r="AI18" s="60">
+      <c r="AI18" s="33">
         <f>CSV!AB43</f>
         <v>10000</v>
       </c>
-      <c r="AJ18" s="59">
+      <c r="AJ18" s="32">
         <f>CSV!AC43</f>
         <v>1</v>
       </c>
-      <c r="AK18" s="76">
+      <c r="AK18" s="47">
         <f>CSV!AD43</f>
         <v>100</v>
       </c>
-      <c r="AL18" s="60">
+      <c r="AL18" s="33">
         <f>CSV!AE43</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="40">
-        <v>100</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="97">
+    <row r="19" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="70">
+        <v>100</v>
+      </c>
+      <c r="E19" s="71"/>
+      <c r="F19" s="58">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G19" s="80">
+      <c r="G19" s="51">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="H19" s="80">
+      <c r="H19" s="51">
         <f t="shared" si="1"/>
         <v>99.5</v>
       </c>
@@ -6928,7 +6934,7 @@
         <f>CSV!B44</f>
         <v>0</v>
       </c>
-      <c r="J19" s="77">
+      <c r="J19" s="48">
         <f>CSV!C44</f>
         <v>97</v>
       </c>
@@ -6940,7 +6946,7 @@
         <f>CSV!E44</f>
         <v>0</v>
       </c>
-      <c r="M19" s="77">
+      <c r="M19" s="48">
         <f>CSV!F44</f>
         <v>100</v>
       </c>
@@ -6952,7 +6958,7 @@
         <f>CSV!H44</f>
         <v>0</v>
       </c>
-      <c r="P19" s="77">
+      <c r="P19" s="48">
         <f>CSV!I44</f>
         <v>100</v>
       </c>
@@ -6964,7 +6970,7 @@
         <f>CSV!K44</f>
         <v>0</v>
       </c>
-      <c r="S19" s="77">
+      <c r="S19" s="48">
         <f>CSV!L44</f>
         <v>100</v>
       </c>
@@ -6976,7 +6982,7 @@
         <f>CSV!N44</f>
         <v>1</v>
       </c>
-      <c r="V19" s="77">
+      <c r="V19" s="48">
         <f>CSV!O44</f>
         <v>100</v>
       </c>
@@ -6988,7 +6994,7 @@
         <f>CSV!Q44</f>
         <v>0</v>
       </c>
-      <c r="Y19" s="77">
+      <c r="Y19" s="48">
         <f>CSV!R44</f>
         <v>98</v>
       </c>
@@ -7000,7 +7006,7 @@
         <f>CSV!T44</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="77">
+      <c r="AB19" s="48">
         <f>CSV!U44</f>
         <v>100</v>
       </c>
@@ -7012,7 +7018,7 @@
         <f>CSV!W44</f>
         <v>0</v>
       </c>
-      <c r="AE19" s="77">
+      <c r="AE19" s="48">
         <f>CSV!X44</f>
         <v>100</v>
       </c>
@@ -7024,7 +7030,7 @@
         <f>CSV!Z44</f>
         <v>0</v>
       </c>
-      <c r="AH19" s="77">
+      <c r="AH19" s="48">
         <f>CSV!AA44</f>
         <v>100</v>
       </c>
@@ -7036,7 +7042,7 @@
         <f>CSV!AC44</f>
         <v>0</v>
       </c>
-      <c r="AK19" s="77">
+      <c r="AK19" s="48">
         <f>CSV!AD44</f>
         <v>100</v>
       </c>
@@ -7045,8 +7051,8 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:38" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:38" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
@@ -7061,33 +7067,33 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:38" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42" t="s">
+      <c r="D24" s="83"/>
+      <c r="E24" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="53" t="s">
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53" t="s">
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="L24" s="53"/>
+      <c r="L24" s="84"/>
       <c r="M24" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -7098,74 +7104,74 @@
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="45" t="s">
+    <row r="26" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I26" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="56"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="45" t="s">
+      <c r="J26" s="86"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="M26" s="56"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="45" t="s">
+      <c r="M26" s="86"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="45" t="s">
+      <c r="P26" s="86"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="S26" s="56"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="45" t="s">
+      <c r="S26" s="86"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="V26" s="56"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="45" t="s">
+      <c r="V26" s="86"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="45" t="s">
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="45" t="s">
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="45" t="s">
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="45" t="s">
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="75"/>
+      <c r="AJ26" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="46"/>
+      <c r="AK26" s="86"/>
+      <c r="AL26" s="75"/>
     </row>
-    <row r="27" spans="2:38" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="57" t="s">
+    <row r="27" spans="2:38" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="49" t="s">
+      <c r="C27" s="94"/>
+      <c r="D27" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="75" t="s">
+      <c r="E27" s="80"/>
+      <c r="F27" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="75" t="s">
+      <c r="G27" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="46" t="s">
         <v>68</v>
       </c>
       <c r="I27" s="3" t="s">
@@ -7259,24 +7265,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B28" s="30">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B28" s="60">
         <v>25</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="36">
+      <c r="C28" s="61"/>
+      <c r="D28" s="66">
         <v>50</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="95">
+      <c r="E28" s="67"/>
+      <c r="F28" s="56">
         <f>AVERAGE(K28,N28,Q28,T28,W28,Z28,AC28,AF28,AI28,AL28)</f>
         <v>6716.5</v>
       </c>
-      <c r="G28" s="78">
+      <c r="G28" s="49">
         <f>AVERAGE(I28,L28,O28,R28,U28,X28,AA28,AD28,AG28,AJ28)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="78">
+      <c r="H28" s="49">
         <f>AVERAGE(J28,M28,P28,S28,V28,Y28,AB28,AE28,AH28,AK28)</f>
         <v>7.1</v>
       </c>
@@ -7401,162 +7407,162 @@
         <v>7115</v>
       </c>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="38">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="68">
         <v>75</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="96">
+      <c r="E29" s="69"/>
+      <c r="F29" s="57">
         <f t="shared" ref="F29:F36" si="2">AVERAGE(K29,N29,Q29,T29,W29,Z29,AC29,AF29,AI29,AL29)</f>
         <v>8183</v>
       </c>
-      <c r="G29" s="79">
+      <c r="G29" s="50">
         <f t="shared" ref="G29:G36" si="3">AVERAGE(I29,L29,O29,R29,U29,X29,AA29,AD29,AG29,AJ29)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="79">
+      <c r="H29" s="50">
         <f t="shared" ref="H29:H36" si="4">AVERAGE(J29,M29,P29,S29,V29,Y29,AB29,AE29,AH29,AK29)</f>
         <v>8.4</v>
       </c>
-      <c r="I29" s="59">
+      <c r="I29" s="32">
         <f>CSV!B48</f>
         <v>0</v>
       </c>
-      <c r="J29" s="76">
+      <c r="J29" s="47">
         <f>CSV!C48</f>
         <v>14</v>
       </c>
-      <c r="K29" s="60">
+      <c r="K29" s="33">
         <f>CSV!D48</f>
         <v>10000</v>
       </c>
-      <c r="L29" s="59">
+      <c r="L29" s="32">
         <f>CSV!E48</f>
         <v>0</v>
       </c>
-      <c r="M29" s="76">
+      <c r="M29" s="47">
         <f>CSV!F48</f>
         <v>10</v>
       </c>
-      <c r="N29" s="60">
+      <c r="N29" s="33">
         <f>CSV!G48</f>
         <v>10000</v>
       </c>
-      <c r="O29" s="59">
+      <c r="O29" s="32">
         <f>CSV!H48</f>
         <v>0</v>
       </c>
-      <c r="P29" s="76">
+      <c r="P29" s="47">
         <f>CSV!I48</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="60">
+      <c r="Q29" s="33">
         <f>CSV!J48</f>
         <v>4525</v>
       </c>
-      <c r="R29" s="59">
+      <c r="R29" s="32">
         <f>CSV!K48</f>
         <v>0</v>
       </c>
-      <c r="S29" s="76">
+      <c r="S29" s="47">
         <f>CSV!L48</f>
         <v>6</v>
       </c>
-      <c r="T29" s="60">
+      <c r="T29" s="33">
         <f>CSV!M48</f>
         <v>10000</v>
       </c>
-      <c r="U29" s="59">
+      <c r="U29" s="32">
         <f>CSV!N48</f>
         <v>0</v>
       </c>
-      <c r="V29" s="76">
+      <c r="V29" s="47">
         <f>CSV!O48</f>
         <v>0</v>
       </c>
-      <c r="W29" s="60">
+      <c r="W29" s="33">
         <f>CSV!P48</f>
         <v>7820</v>
       </c>
-      <c r="X29" s="59">
+      <c r="X29" s="32">
         <f>CSV!Q48</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="76">
+      <c r="Y29" s="47">
         <f>CSV!R48</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="60">
+      <c r="Z29" s="33">
         <f>CSV!S48</f>
         <v>2375</v>
       </c>
-      <c r="AA29" s="59">
+      <c r="AA29" s="32">
         <f>CSV!T48</f>
         <v>0</v>
       </c>
-      <c r="AB29" s="76">
+      <c r="AB29" s="47">
         <f>CSV!U48</f>
         <v>22</v>
       </c>
-      <c r="AC29" s="60">
+      <c r="AC29" s="33">
         <f>CSV!V48</f>
         <v>10000</v>
       </c>
-      <c r="AD29" s="59">
+      <c r="AD29" s="32">
         <f>CSV!W48</f>
         <v>0</v>
       </c>
-      <c r="AE29" s="76">
+      <c r="AE29" s="47">
         <f>CSV!X48</f>
         <v>11</v>
       </c>
-      <c r="AF29" s="60">
+      <c r="AF29" s="33">
         <f>CSV!Y48</f>
         <v>10000</v>
       </c>
-      <c r="AG29" s="59">
+      <c r="AG29" s="32">
         <f>CSV!Z48</f>
         <v>0</v>
       </c>
-      <c r="AH29" s="76">
+      <c r="AH29" s="47">
         <f>CSV!AA48</f>
         <v>0</v>
       </c>
-      <c r="AI29" s="60">
+      <c r="AI29" s="33">
         <f>CSV!AB48</f>
         <v>7110</v>
       </c>
-      <c r="AJ29" s="59">
+      <c r="AJ29" s="32">
         <f>CSV!AC48</f>
         <v>0</v>
       </c>
-      <c r="AK29" s="76">
+      <c r="AK29" s="47">
         <f>CSV!AD48</f>
         <v>21</v>
       </c>
-      <c r="AL29" s="60">
+      <c r="AL29" s="33">
         <f>CSV!AE48</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="38">
-        <v>100</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="97">
+    <row r="30" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="68">
+        <v>100</v>
+      </c>
+      <c r="E30" s="69"/>
+      <c r="F30" s="58">
         <f t="shared" si="2"/>
         <v>9797.5</v>
       </c>
-      <c r="G30" s="80">
+      <c r="G30" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H30" s="80">
+      <c r="H30" s="51">
         <f t="shared" si="4"/>
         <v>7.3</v>
       </c>
@@ -7564,7 +7570,7 @@
         <f>CSV!B49</f>
         <v>0</v>
       </c>
-      <c r="J30" s="77">
+      <c r="J30" s="48">
         <f>CSV!C49</f>
         <v>0</v>
       </c>
@@ -7576,7 +7582,7 @@
         <f>CSV!E49</f>
         <v>0</v>
       </c>
-      <c r="M30" s="77">
+      <c r="M30" s="48">
         <f>CSV!F49</f>
         <v>4</v>
       </c>
@@ -7588,7 +7594,7 @@
         <f>CSV!H49</f>
         <v>0</v>
       </c>
-      <c r="P30" s="77">
+      <c r="P30" s="48">
         <f>CSV!I49</f>
         <v>1</v>
       </c>
@@ -7600,7 +7606,7 @@
         <f>CSV!K49</f>
         <v>0</v>
       </c>
-      <c r="S30" s="77">
+      <c r="S30" s="48">
         <f>CSV!L49</f>
         <v>10</v>
       </c>
@@ -7612,7 +7618,7 @@
         <f>CSV!N49</f>
         <v>0</v>
       </c>
-      <c r="V30" s="77">
+      <c r="V30" s="48">
         <f>CSV!O49</f>
         <v>18</v>
       </c>
@@ -7624,7 +7630,7 @@
         <f>CSV!Q49</f>
         <v>0</v>
       </c>
-      <c r="Y30" s="77">
+      <c r="Y30" s="48">
         <f>CSV!R49</f>
         <v>3</v>
       </c>
@@ -7636,7 +7642,7 @@
         <f>CSV!T49</f>
         <v>0</v>
       </c>
-      <c r="AB30" s="77">
+      <c r="AB30" s="48">
         <f>CSV!U49</f>
         <v>1</v>
       </c>
@@ -7648,7 +7654,7 @@
         <f>CSV!W49</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="77">
+      <c r="AE30" s="48">
         <f>CSV!X49</f>
         <v>17</v>
       </c>
@@ -7660,7 +7666,7 @@
         <f>CSV!Z49</f>
         <v>0</v>
       </c>
-      <c r="AH30" s="77">
+      <c r="AH30" s="48">
         <f>CSV!AA49</f>
         <v>18</v>
       </c>
@@ -7672,7 +7678,7 @@
         <f>CSV!AC49</f>
         <v>0</v>
       </c>
-      <c r="AK30" s="77">
+      <c r="AK30" s="48">
         <f>CSV!AD49</f>
         <v>1</v>
       </c>
@@ -7681,24 +7687,24 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B31" s="30">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B31" s="60">
         <v>50</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="43">
+      <c r="C31" s="61"/>
+      <c r="D31" s="72">
         <v>50</v>
       </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="98">
+      <c r="E31" s="73"/>
+      <c r="F31" s="59">
         <f t="shared" si="2"/>
         <v>9017.5</v>
       </c>
-      <c r="G31" s="81">
+      <c r="G31" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H31" s="81">
+      <c r="H31" s="52">
         <f t="shared" si="4"/>
         <v>18.100000000000001</v>
       </c>
@@ -7823,162 +7829,162 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="38">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="68">
         <v>75</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="96">
+      <c r="E32" s="69"/>
+      <c r="F32" s="57">
         <f t="shared" si="2"/>
         <v>8482</v>
       </c>
-      <c r="G32" s="79">
+      <c r="G32" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H32" s="79">
+      <c r="H32" s="50">
         <f t="shared" si="4"/>
         <v>14.8</v>
       </c>
-      <c r="I32" s="59">
+      <c r="I32" s="32">
         <f>CSV!B51</f>
         <v>0</v>
       </c>
-      <c r="J32" s="76">
+      <c r="J32" s="47">
         <f>CSV!C51</f>
         <v>44</v>
       </c>
-      <c r="K32" s="60">
+      <c r="K32" s="33">
         <f>CSV!D51</f>
         <v>10000</v>
       </c>
-      <c r="L32" s="59">
+      <c r="L32" s="32">
         <f>CSV!E51</f>
         <v>0</v>
       </c>
-      <c r="M32" s="76">
+      <c r="M32" s="47">
         <f>CSV!F51</f>
         <v>0</v>
       </c>
-      <c r="N32" s="60">
+      <c r="N32" s="33">
         <f>CSV!G51</f>
         <v>7810</v>
       </c>
-      <c r="O32" s="59">
+      <c r="O32" s="32">
         <f>CSV!H51</f>
         <v>0</v>
       </c>
-      <c r="P32" s="76">
+      <c r="P32" s="47">
         <f>CSV!I51</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="60">
+      <c r="Q32" s="33">
         <f>CSV!J51</f>
         <v>3590</v>
       </c>
-      <c r="R32" s="59">
+      <c r="R32" s="32">
         <f>CSV!K51</f>
         <v>0</v>
       </c>
-      <c r="S32" s="76">
+      <c r="S32" s="47">
         <f>CSV!L51</f>
         <v>40</v>
       </c>
-      <c r="T32" s="60">
+      <c r="T32" s="33">
         <f>CSV!M51</f>
         <v>10000</v>
       </c>
-      <c r="U32" s="59">
+      <c r="U32" s="32">
         <f>CSV!N51</f>
         <v>0</v>
       </c>
-      <c r="V32" s="76">
+      <c r="V32" s="47">
         <f>CSV!O51</f>
         <v>7</v>
       </c>
-      <c r="W32" s="60">
+      <c r="W32" s="33">
         <f>CSV!P51</f>
         <v>10000</v>
       </c>
-      <c r="X32" s="59">
+      <c r="X32" s="32">
         <f>CSV!Q51</f>
         <v>0</v>
       </c>
-      <c r="Y32" s="76">
+      <c r="Y32" s="47">
         <f>CSV!R51</f>
         <v>29</v>
       </c>
-      <c r="Z32" s="60">
+      <c r="Z32" s="33">
         <f>CSV!S51</f>
         <v>10000</v>
       </c>
-      <c r="AA32" s="59">
+      <c r="AA32" s="32">
         <f>CSV!T51</f>
         <v>0</v>
       </c>
-      <c r="AB32" s="76">
+      <c r="AB32" s="47">
         <f>CSV!U51</f>
         <v>28</v>
       </c>
-      <c r="AC32" s="60">
+      <c r="AC32" s="33">
         <f>CSV!V51</f>
         <v>10000</v>
       </c>
-      <c r="AD32" s="59">
+      <c r="AD32" s="32">
         <f>CSV!W51</f>
         <v>0</v>
       </c>
-      <c r="AE32" s="76">
+      <c r="AE32" s="47">
         <f>CSV!X51</f>
         <v>0</v>
       </c>
-      <c r="AF32" s="60">
+      <c r="AF32" s="33">
         <f>CSV!Y51</f>
         <v>6770</v>
       </c>
-      <c r="AG32" s="59">
+      <c r="AG32" s="32">
         <f>CSV!Z51</f>
         <v>0</v>
       </c>
-      <c r="AH32" s="76">
+      <c r="AH32" s="47">
         <f>CSV!AA51</f>
         <v>0</v>
       </c>
-      <c r="AI32" s="60">
+      <c r="AI32" s="33">
         <f>CSV!AB51</f>
         <v>6880</v>
       </c>
-      <c r="AJ32" s="59">
+      <c r="AJ32" s="32">
         <f>CSV!AC51</f>
         <v>0</v>
       </c>
-      <c r="AK32" s="76">
+      <c r="AK32" s="47">
         <f>CSV!AD51</f>
         <v>0</v>
       </c>
-      <c r="AL32" s="60">
+      <c r="AL32" s="33">
         <f>CSV!AE51</f>
         <v>9770</v>
       </c>
     </row>
-    <row r="33" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="40">
-        <v>100</v>
-      </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="97">
+    <row r="33" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="70">
+        <v>100</v>
+      </c>
+      <c r="E33" s="71"/>
+      <c r="F33" s="58">
         <f t="shared" si="2"/>
         <v>8955</v>
       </c>
-      <c r="G33" s="80">
+      <c r="G33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H33" s="80">
+      <c r="H33" s="51">
         <f t="shared" si="4"/>
         <v>15.4</v>
       </c>
@@ -7986,7 +7992,7 @@
         <f>CSV!B52</f>
         <v>0</v>
       </c>
-      <c r="J33" s="77">
+      <c r="J33" s="48">
         <f>CSV!C52</f>
         <v>3</v>
       </c>
@@ -7998,7 +8004,7 @@
         <f>CSV!E52</f>
         <v>0</v>
       </c>
-      <c r="M33" s="77">
+      <c r="M33" s="48">
         <f>CSV!F52</f>
         <v>0</v>
       </c>
@@ -8010,7 +8016,7 @@
         <f>CSV!H52</f>
         <v>0</v>
       </c>
-      <c r="P33" s="77">
+      <c r="P33" s="48">
         <f>CSV!I52</f>
         <v>30</v>
       </c>
@@ -8022,7 +8028,7 @@
         <f>CSV!K52</f>
         <v>0</v>
       </c>
-      <c r="S33" s="77">
+      <c r="S33" s="48">
         <f>CSV!L52</f>
         <v>0</v>
       </c>
@@ -8034,7 +8040,7 @@
         <f>CSV!N52</f>
         <v>0</v>
       </c>
-      <c r="V33" s="77">
+      <c r="V33" s="48">
         <f>CSV!O52</f>
         <v>8</v>
       </c>
@@ -8046,7 +8052,7 @@
         <f>CSV!Q52</f>
         <v>0</v>
       </c>
-      <c r="Y33" s="77">
+      <c r="Y33" s="48">
         <f>CSV!R52</f>
         <v>0</v>
       </c>
@@ -8058,7 +8064,7 @@
         <f>CSV!T52</f>
         <v>0</v>
       </c>
-      <c r="AB33" s="77">
+      <c r="AB33" s="48">
         <f>CSV!U52</f>
         <v>47</v>
       </c>
@@ -8070,7 +8076,7 @@
         <f>CSV!W52</f>
         <v>0</v>
       </c>
-      <c r="AE33" s="77">
+      <c r="AE33" s="48">
         <f>CSV!X52</f>
         <v>48</v>
       </c>
@@ -8082,7 +8088,7 @@
         <f>CSV!Z52</f>
         <v>0</v>
       </c>
-      <c r="AH33" s="77">
+      <c r="AH33" s="48">
         <f>CSV!AA52</f>
         <v>0</v>
       </c>
@@ -8094,7 +8100,7 @@
         <f>CSV!AC52</f>
         <v>0</v>
       </c>
-      <c r="AK33" s="77">
+      <c r="AK33" s="48">
         <f>CSV!AD52</f>
         <v>18</v>
       </c>
@@ -8103,24 +8109,24 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B34" s="30">
-        <v>100</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="36">
+    <row r="34" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B34" s="60">
+        <v>100</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="66">
         <v>50</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="98">
+      <c r="E34" s="67"/>
+      <c r="F34" s="59">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="G34" s="81">
+      <c r="G34" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H34" s="81">
+      <c r="H34" s="52">
         <f t="shared" si="4"/>
         <v>80.5</v>
       </c>
@@ -8245,162 +8251,162 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="38">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="68">
         <v>75</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="96">
+      <c r="E35" s="69"/>
+      <c r="F35" s="57">
         <f t="shared" si="2"/>
         <v>9532.5</v>
       </c>
-      <c r="G35" s="79">
+      <c r="G35" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H35" s="79">
+      <c r="H35" s="50">
         <f t="shared" si="4"/>
         <v>66.599999999999994</v>
       </c>
-      <c r="I35" s="59">
+      <c r="I35" s="32">
         <f>CSV!B54</f>
         <v>0</v>
       </c>
-      <c r="J35" s="76">
+      <c r="J35" s="47">
         <f>CSV!C54</f>
         <v>76</v>
       </c>
-      <c r="K35" s="60">
+      <c r="K35" s="33">
         <f>CSV!D54</f>
         <v>10000</v>
       </c>
-      <c r="L35" s="59">
+      <c r="L35" s="32">
         <f>CSV!E54</f>
         <v>0</v>
       </c>
-      <c r="M35" s="76">
+      <c r="M35" s="47">
         <f>CSV!F54</f>
         <v>84</v>
       </c>
-      <c r="N35" s="60">
+      <c r="N35" s="33">
         <f>CSV!G54</f>
         <v>10000</v>
       </c>
-      <c r="O35" s="59">
+      <c r="O35" s="32">
         <f>CSV!H54</f>
         <v>0</v>
       </c>
-      <c r="P35" s="76">
+      <c r="P35" s="47">
         <f>CSV!I54</f>
         <v>3</v>
       </c>
-      <c r="Q35" s="60">
+      <c r="Q35" s="33">
         <f>CSV!J54</f>
         <v>10000</v>
       </c>
-      <c r="R35" s="59">
+      <c r="R35" s="32">
         <f>CSV!K54</f>
         <v>0</v>
       </c>
-      <c r="S35" s="76">
+      <c r="S35" s="47">
         <f>CSV!L54</f>
         <v>0</v>
       </c>
-      <c r="T35" s="60">
+      <c r="T35" s="33">
         <f>CSV!M54</f>
         <v>5325</v>
       </c>
-      <c r="U35" s="59">
+      <c r="U35" s="32">
         <f>CSV!N54</f>
         <v>0</v>
       </c>
-      <c r="V35" s="76">
+      <c r="V35" s="47">
         <f>CSV!O54</f>
         <v>81</v>
       </c>
-      <c r="W35" s="60">
+      <c r="W35" s="33">
         <f>CSV!P54</f>
         <v>10000</v>
       </c>
-      <c r="X35" s="59">
+      <c r="X35" s="32">
         <f>CSV!Q54</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="76">
+      <c r="Y35" s="47">
         <f>CSV!R54</f>
         <v>82</v>
       </c>
-      <c r="Z35" s="60">
+      <c r="Z35" s="33">
         <f>CSV!S54</f>
         <v>10000</v>
       </c>
-      <c r="AA35" s="59">
+      <c r="AA35" s="32">
         <f>CSV!T54</f>
         <v>0</v>
       </c>
-      <c r="AB35" s="76">
+      <c r="AB35" s="47">
         <f>CSV!U54</f>
         <v>94</v>
       </c>
-      <c r="AC35" s="60">
+      <c r="AC35" s="33">
         <f>CSV!V54</f>
         <v>10000</v>
       </c>
-      <c r="AD35" s="59">
+      <c r="AD35" s="32">
         <f>CSV!W54</f>
         <v>0</v>
       </c>
-      <c r="AE35" s="76">
+      <c r="AE35" s="47">
         <f>CSV!X54</f>
         <v>81</v>
       </c>
-      <c r="AF35" s="60">
+      <c r="AF35" s="33">
         <f>CSV!Y54</f>
         <v>10000</v>
       </c>
-      <c r="AG35" s="59">
+      <c r="AG35" s="32">
         <f>CSV!Z54</f>
         <v>0</v>
       </c>
-      <c r="AH35" s="76">
+      <c r="AH35" s="47">
         <f>CSV!AA54</f>
         <v>75</v>
       </c>
-      <c r="AI35" s="60">
+      <c r="AI35" s="33">
         <f>CSV!AB54</f>
         <v>10000</v>
       </c>
-      <c r="AJ35" s="59">
+      <c r="AJ35" s="32">
         <f>CSV!AC54</f>
         <v>0</v>
       </c>
-      <c r="AK35" s="76">
+      <c r="AK35" s="47">
         <f>CSV!AD54</f>
         <v>90</v>
       </c>
-      <c r="AL35" s="60">
+      <c r="AL35" s="33">
         <f>CSV!AE54</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="40">
-        <v>100</v>
-      </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="97">
+    <row r="36" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="70">
+        <v>100</v>
+      </c>
+      <c r="E36" s="71"/>
+      <c r="F36" s="58">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="G36" s="80">
+      <c r="G36" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H36" s="80">
+      <c r="H36" s="51">
         <f t="shared" si="4"/>
         <v>73.400000000000006</v>
       </c>
@@ -8408,7 +8414,7 @@
         <f>CSV!B55</f>
         <v>0</v>
       </c>
-      <c r="J36" s="77">
+      <c r="J36" s="48">
         <f>CSV!C55</f>
         <v>52</v>
       </c>
@@ -8420,7 +8426,7 @@
         <f>CSV!E55</f>
         <v>0</v>
       </c>
-      <c r="M36" s="77">
+      <c r="M36" s="48">
         <f>CSV!F55</f>
         <v>83</v>
       </c>
@@ -8432,7 +8438,7 @@
         <f>CSV!H55</f>
         <v>0</v>
       </c>
-      <c r="P36" s="77">
+      <c r="P36" s="48">
         <f>CSV!I55</f>
         <v>63</v>
       </c>
@@ -8444,7 +8450,7 @@
         <f>CSV!K55</f>
         <v>0</v>
       </c>
-      <c r="S36" s="77">
+      <c r="S36" s="48">
         <f>CSV!L55</f>
         <v>55</v>
       </c>
@@ -8456,7 +8462,7 @@
         <f>CSV!N55</f>
         <v>0</v>
       </c>
-      <c r="V36" s="77">
+      <c r="V36" s="48">
         <f>CSV!O55</f>
         <v>90</v>
       </c>
@@ -8468,7 +8474,7 @@
         <f>CSV!Q55</f>
         <v>0</v>
       </c>
-      <c r="Y36" s="77">
+      <c r="Y36" s="48">
         <f>CSV!R55</f>
         <v>93</v>
       </c>
@@ -8480,7 +8486,7 @@
         <f>CSV!T55</f>
         <v>0</v>
       </c>
-      <c r="AB36" s="77">
+      <c r="AB36" s="48">
         <f>CSV!U55</f>
         <v>22</v>
       </c>
@@ -8492,7 +8498,7 @@
         <f>CSV!W55</f>
         <v>0</v>
       </c>
-      <c r="AE36" s="77">
+      <c r="AE36" s="48">
         <f>CSV!X55</f>
         <v>91</v>
       </c>
@@ -8504,7 +8510,7 @@
         <f>CSV!Z55</f>
         <v>0</v>
       </c>
-      <c r="AH36" s="77">
+      <c r="AH36" s="48">
         <f>CSV!AA55</f>
         <v>89</v>
       </c>
@@ -8516,7 +8522,7 @@
         <f>CSV!AC55</f>
         <v>0</v>
       </c>
-      <c r="AK36" s="77">
+      <c r="AK36" s="48">
         <f>CSV!AD55</f>
         <v>96</v>
       </c>
@@ -8525,8 +8531,8 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:38" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:38" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="2" t="s">
         <v>72</v>
       </c>
@@ -8541,25 +8547,25 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B41" s="42" t="s">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B41" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42" t="s">
+      <c r="C41" s="83"/>
+      <c r="D41" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42" t="s">
+      <c r="E41" s="83"/>
+      <c r="F41" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
     </row>
-    <row r="42" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
@@ -8571,74 +8577,74 @@
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
     </row>
-    <row r="43" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I43" s="45" t="s">
+    <row r="43" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I43" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J43" s="56"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="45" t="s">
+      <c r="J43" s="86"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="56"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="45" t="s">
+      <c r="M43" s="86"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="45" t="s">
+      <c r="P43" s="86"/>
+      <c r="Q43" s="75"/>
+      <c r="R43" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="S43" s="56"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="45" t="s">
+      <c r="S43" s="86"/>
+      <c r="T43" s="75"/>
+      <c r="U43" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="V43" s="56"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="45" t="s">
+      <c r="V43" s="86"/>
+      <c r="W43" s="75"/>
+      <c r="X43" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="46"/>
-      <c r="AA43" s="45" t="s">
+      <c r="Y43" s="86"/>
+      <c r="Z43" s="75"/>
+      <c r="AA43" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="45" t="s">
+      <c r="AB43" s="86"/>
+      <c r="AC43" s="75"/>
+      <c r="AD43" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="AE43" s="56"/>
-      <c r="AF43" s="46"/>
-      <c r="AG43" s="45" t="s">
+      <c r="AE43" s="86"/>
+      <c r="AF43" s="75"/>
+      <c r="AG43" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="AH43" s="56"/>
-      <c r="AI43" s="46"/>
-      <c r="AJ43" s="45" t="s">
+      <c r="AH43" s="86"/>
+      <c r="AI43" s="75"/>
+      <c r="AJ43" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AK43" s="56"/>
-      <c r="AL43" s="46"/>
+      <c r="AK43" s="86"/>
+      <c r="AL43" s="75"/>
     </row>
-    <row r="44" spans="2:38" s="29" customFormat="1" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="90" t="s">
+    <row r="44" spans="2:38" s="29" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="88" t="s">
+      <c r="C44" s="98"/>
+      <c r="D44" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="89"/>
-      <c r="F44" s="75" t="s">
+      <c r="E44" s="100"/>
+      <c r="F44" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="75" t="s">
+      <c r="G44" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H44" s="75" t="s">
+      <c r="H44" s="46" t="s">
         <v>68</v>
       </c>
       <c r="I44" s="3" t="s">
@@ -8732,26 +8738,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B45" s="82">
+    <row r="45" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B45" s="87">
         <v>1</v>
       </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="36">
+      <c r="C45" s="88"/>
+      <c r="D45" s="66">
         <v>50</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="95">
+      <c r="E45" s="67"/>
+      <c r="F45" s="56">
         <f>AVERAGE(K45,N45,Q45,T45,W45,Z45,AC45,AF45,AI45,AL45)</f>
         <v>10000</v>
       </c>
-      <c r="G45" s="78">
+      <c r="G45" s="49">
         <f>AVERAGE(I45,L45,O45,R45,U45,X45,AA45,AD45,AG45,AJ45)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="78">
+      <c r="H45" s="49">
         <f>AVERAGE(J45,M45,P45,S45,V45,Y45,AB45,AE45,AH45,AK45)</f>
-        <v>39.9</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="I45" s="14">
         <f>CSV!B58</f>
@@ -8766,278 +8772,278 @@
         <v>10000</v>
       </c>
       <c r="L45" s="14">
-        <f>CSV!E64</f>
+        <f>CSV!E58</f>
         <v>0</v>
       </c>
       <c r="M45" s="27">
-        <f>CSV!F64</f>
-        <v>43</v>
+        <f>CSV!F58</f>
+        <v>26</v>
       </c>
       <c r="N45" s="15">
-        <f>CSV!G64</f>
+        <f>CSV!G58</f>
         <v>10000</v>
       </c>
       <c r="O45" s="14">
-        <f>CSV!H64</f>
+        <f>CSV!H58</f>
         <v>0</v>
       </c>
       <c r="P45" s="27">
-        <f>CSV!I64</f>
-        <v>47</v>
+        <f>CSV!I58</f>
+        <v>49</v>
       </c>
       <c r="Q45" s="15">
-        <f>CSV!J64</f>
+        <f>CSV!J58</f>
         <v>10000</v>
       </c>
       <c r="R45" s="14">
-        <f>CSV!K64</f>
+        <f>CSV!K58</f>
         <v>0</v>
       </c>
       <c r="S45" s="27">
-        <f>CSV!L64</f>
-        <v>43</v>
+        <f>CSV!L58</f>
+        <v>48</v>
       </c>
       <c r="T45" s="15">
-        <f>CSV!M64</f>
+        <f>CSV!M58</f>
         <v>10000</v>
       </c>
       <c r="U45" s="14">
-        <f>CSV!N64</f>
+        <f>CSV!N58</f>
         <v>0</v>
       </c>
       <c r="V45" s="27">
-        <f>CSV!O64</f>
-        <v>35</v>
+        <f>CSV!O58</f>
+        <v>38</v>
       </c>
       <c r="W45" s="15">
-        <f>CSV!P64</f>
+        <f>CSV!P58</f>
         <v>10000</v>
       </c>
       <c r="X45" s="14">
-        <f>CSV!Q64</f>
+        <f>CSV!Q58</f>
         <v>0</v>
       </c>
       <c r="Y45" s="27">
-        <f>CSV!R64</f>
-        <v>43</v>
+        <f>CSV!R58</f>
+        <v>8</v>
       </c>
       <c r="Z45" s="15">
-        <f>CSV!S64</f>
+        <f>CSV!S58</f>
         <v>10000</v>
       </c>
       <c r="AA45" s="14">
-        <f>CSV!T64</f>
+        <f>CSV!T58</f>
         <v>0</v>
       </c>
       <c r="AB45" s="27">
-        <f>CSV!U64</f>
-        <v>30</v>
+        <f>CSV!U58</f>
+        <v>37</v>
       </c>
       <c r="AC45" s="15">
-        <f>CSV!V64</f>
+        <f>CSV!V58</f>
         <v>10000</v>
       </c>
       <c r="AD45" s="14">
-        <f>CSV!W64</f>
+        <f>CSV!W58</f>
         <v>0</v>
       </c>
       <c r="AE45" s="27">
-        <f>CSV!X64</f>
-        <v>43</v>
+        <f>CSV!X58</f>
+        <v>16</v>
       </c>
       <c r="AF45" s="15">
-        <f>CSV!Y64</f>
+        <f>CSV!Y58</f>
         <v>10000</v>
       </c>
       <c r="AG45" s="14">
-        <f>CSV!Z64</f>
+        <f>CSV!Z58</f>
         <v>0</v>
       </c>
       <c r="AH45" s="27">
-        <f>CSV!AA64</f>
-        <v>34</v>
+        <f>CSV!AA58</f>
+        <v>50</v>
       </c>
       <c r="AI45" s="15">
-        <f>CSV!AB64</f>
+        <f>CSV!AB58</f>
         <v>10000</v>
       </c>
       <c r="AJ45" s="14">
-        <f>CSV!AC64</f>
+        <f>CSV!AC58</f>
         <v>0</v>
       </c>
       <c r="AK45" s="27">
-        <f>CSV!AD64</f>
-        <v>45</v>
+        <f>CSV!AD58</f>
+        <v>39</v>
       </c>
       <c r="AL45" s="15">
-        <f>CSV!AE64</f>
+        <f>CSV!AE58</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B46" s="84"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="38">
+    <row r="46" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B46" s="89"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="68">
         <v>75</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="96">
+      <c r="E46" s="69"/>
+      <c r="F46" s="57">
         <f t="shared" ref="F46:F53" si="5">AVERAGE(K46,N46,Q46,T46,W46,Z46,AC46,AF46,AI46,AL46)</f>
         <v>10000</v>
       </c>
-      <c r="G46" s="79">
+      <c r="G46" s="50">
         <f t="shared" ref="G46:G53" si="6">AVERAGE(I46,L46,O46,R46,U46,X46,AA46,AD46,AG46,AJ46)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="79">
+      <c r="H46" s="50">
         <f t="shared" ref="H46:H53" si="7">AVERAGE(J46,M46,P46,S46,V46,Y46,AB46,AE46,AH46,AK46)</f>
-        <v>65.3</v>
-      </c>
-      <c r="I46" s="59">
+        <v>61.1</v>
+      </c>
+      <c r="I46" s="32">
         <f>CSV!B59</f>
         <v>0</v>
       </c>
-      <c r="J46" s="76">
+      <c r="J46" s="47">
         <f>CSV!C59</f>
         <v>56</v>
       </c>
-      <c r="K46" s="60">
+      <c r="K46" s="33">
         <f>CSV!D59</f>
         <v>10000</v>
       </c>
-      <c r="L46" s="59">
-        <f>CSV!E65</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="76">
-        <f>CSV!F65</f>
-        <v>70</v>
-      </c>
-      <c r="N46" s="60">
-        <f>CSV!G65</f>
-        <v>10000</v>
-      </c>
-      <c r="O46" s="59">
-        <f>CSV!H65</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="76">
-        <f>CSV!I65</f>
-        <v>62</v>
-      </c>
-      <c r="Q46" s="60">
-        <f>CSV!J65</f>
-        <v>10000</v>
-      </c>
-      <c r="R46" s="59">
-        <f>CSV!K65</f>
-        <v>0</v>
-      </c>
-      <c r="S46" s="76">
-        <f>CSV!L65</f>
-        <v>65</v>
-      </c>
-      <c r="T46" s="60">
-        <f>CSV!M65</f>
-        <v>10000</v>
-      </c>
-      <c r="U46" s="59">
-        <f>CSV!N65</f>
-        <v>0</v>
-      </c>
-      <c r="V46" s="76">
-        <f>CSV!O65</f>
-        <v>68</v>
-      </c>
-      <c r="W46" s="60">
-        <f>CSV!P65</f>
-        <v>10000</v>
-      </c>
-      <c r="X46" s="59">
-        <f>CSV!Q65</f>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="76">
-        <f>CSV!R65</f>
+      <c r="L46" s="32">
+        <f>CSV!E59</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="47">
+        <f>CSV!F59</f>
+        <v>71</v>
+      </c>
+      <c r="N46" s="33">
+        <f>CSV!G59</f>
+        <v>10000</v>
+      </c>
+      <c r="O46" s="32">
+        <f>CSV!H59</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="47">
+        <f>CSV!I59</f>
+        <v>51</v>
+      </c>
+      <c r="Q46" s="33">
+        <f>CSV!J59</f>
+        <v>10000</v>
+      </c>
+      <c r="R46" s="32">
+        <f>CSV!K59</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="47">
+        <f>CSV!L59</f>
+        <v>52</v>
+      </c>
+      <c r="T46" s="33">
+        <f>CSV!M59</f>
+        <v>10000</v>
+      </c>
+      <c r="U46" s="32">
+        <f>CSV!N59</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="47">
+        <f>CSV!O59</f>
+        <v>52</v>
+      </c>
+      <c r="W46" s="33">
+        <f>CSV!P59</f>
+        <v>10000</v>
+      </c>
+      <c r="X46" s="32">
+        <f>CSV!Q59</f>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="47">
+        <f>CSV!R59</f>
+        <v>56</v>
+      </c>
+      <c r="Z46" s="33">
+        <f>CSV!S59</f>
+        <v>10000</v>
+      </c>
+      <c r="AA46" s="32">
+        <f>CSV!T59</f>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="47">
+        <f>CSV!U59</f>
+        <v>75</v>
+      </c>
+      <c r="AC46" s="33">
+        <f>CSV!V59</f>
+        <v>10000</v>
+      </c>
+      <c r="AD46" s="32">
+        <f>CSV!W59</f>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="47">
+        <f>CSV!X59</f>
+        <v>69</v>
+      </c>
+      <c r="AF46" s="33">
+        <f>CSV!Y59</f>
+        <v>10000</v>
+      </c>
+      <c r="AG46" s="32">
+        <f>CSV!Z59</f>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="47">
+        <f>CSV!AA59</f>
         <v>73</v>
       </c>
-      <c r="Z46" s="60">
-        <f>CSV!S65</f>
-        <v>10000</v>
-      </c>
-      <c r="AA46" s="59">
-        <f>CSV!T65</f>
-        <v>0</v>
-      </c>
-      <c r="AB46" s="76">
-        <f>CSV!U65</f>
-        <v>73</v>
-      </c>
-      <c r="AC46" s="60">
-        <f>CSV!V65</f>
-        <v>10000</v>
-      </c>
-      <c r="AD46" s="59">
-        <f>CSV!W65</f>
-        <v>0</v>
-      </c>
-      <c r="AE46" s="76">
-        <f>CSV!X65</f>
-        <v>72</v>
-      </c>
-      <c r="AF46" s="60">
-        <f>CSV!Y65</f>
-        <v>10000</v>
-      </c>
-      <c r="AG46" s="59">
-        <f>CSV!Z65</f>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="76">
-        <f>CSV!AA65</f>
-        <v>60</v>
-      </c>
-      <c r="AI46" s="60">
-        <f>CSV!AB65</f>
-        <v>10000</v>
-      </c>
-      <c r="AJ46" s="59">
-        <f>CSV!AC65</f>
-        <v>0</v>
-      </c>
-      <c r="AK46" s="76">
-        <f>CSV!AD65</f>
-        <v>54</v>
-      </c>
-      <c r="AL46" s="60">
-        <f>CSV!AE65</f>
+      <c r="AI46" s="33">
+        <f>CSV!AB59</f>
+        <v>10000</v>
+      </c>
+      <c r="AJ46" s="32">
+        <f>CSV!AC59</f>
+        <v>0</v>
+      </c>
+      <c r="AK46" s="47">
+        <f>CSV!AD59</f>
+        <v>56</v>
+      </c>
+      <c r="AL46" s="33">
+        <f>CSV!AE59</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="47" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="38">
-        <v>100</v>
-      </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="97">
+    <row r="47" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="91"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="68">
+        <v>100</v>
+      </c>
+      <c r="E47" s="69"/>
+      <c r="F47" s="58">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G47" s="80">
+      <c r="G47" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H47" s="80">
+      <c r="H47" s="51">
         <f t="shared" si="7"/>
-        <v>91.4</v>
+        <v>93.8</v>
       </c>
       <c r="I47" s="12">
         <f>CSV!B60</f>
         <v>0</v>
       </c>
-      <c r="J47" s="77">
+      <c r="J47" s="48">
         <f>CSV!C60</f>
         <v>97</v>
       </c>
@@ -9045,135 +9051,135 @@
         <f>CSV!D60</f>
         <v>10000</v>
       </c>
-      <c r="L47" s="12">
-        <f>CSV!E66</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="77">
-        <f>CSV!F66</f>
+      <c r="L47" s="30">
+        <f>CSV!E60</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="48">
+        <f>CSV!F60</f>
+        <v>93</v>
+      </c>
+      <c r="N47" s="31">
+        <f>CSV!G60</f>
+        <v>10000</v>
+      </c>
+      <c r="O47" s="30">
+        <f>CSV!H60</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="48">
+        <f>CSV!I60</f>
+        <v>95</v>
+      </c>
+      <c r="Q47" s="31">
+        <f>CSV!J60</f>
+        <v>10000</v>
+      </c>
+      <c r="R47" s="30">
+        <f>CSV!K60</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="48">
+        <f>CSV!L60</f>
         <v>96</v>
       </c>
-      <c r="N47" s="13">
-        <f>CSV!G66</f>
-        <v>10000</v>
-      </c>
-      <c r="O47" s="12">
-        <f>CSV!H66</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="77">
-        <f>CSV!I66</f>
-        <v>96</v>
-      </c>
-      <c r="Q47" s="13">
-        <f>CSV!J66</f>
-        <v>10000</v>
-      </c>
-      <c r="R47" s="12">
-        <f>CSV!K66</f>
-        <v>0</v>
-      </c>
-      <c r="S47" s="77">
-        <f>CSV!L66</f>
+      <c r="T47" s="31">
+        <f>CSV!M60</f>
+        <v>10000</v>
+      </c>
+      <c r="U47" s="30">
+        <f>CSV!N60</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="48">
+        <f>CSV!O60</f>
+        <v>97</v>
+      </c>
+      <c r="W47" s="31">
+        <f>CSV!P60</f>
+        <v>10000</v>
+      </c>
+      <c r="X47" s="30">
+        <f>CSV!Q60</f>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="48">
+        <f>CSV!R60</f>
+        <v>98</v>
+      </c>
+      <c r="Z47" s="31">
+        <f>CSV!S60</f>
+        <v>10000</v>
+      </c>
+      <c r="AA47" s="30">
+        <f>CSV!T60</f>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="48">
+        <f>CSV!U60</f>
         <v>78</v>
       </c>
-      <c r="T47" s="13">
-        <f>CSV!M66</f>
-        <v>10000</v>
-      </c>
-      <c r="U47" s="12">
-        <f>CSV!N66</f>
-        <v>0</v>
-      </c>
-      <c r="V47" s="77">
-        <f>CSV!O66</f>
-        <v>97</v>
-      </c>
-      <c r="W47" s="13">
-        <f>CSV!P66</f>
-        <v>10000</v>
-      </c>
-      <c r="X47" s="12">
-        <f>CSV!Q66</f>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="77">
-        <f>CSV!R66</f>
+      <c r="AC47" s="31">
+        <f>CSV!V60</f>
+        <v>10000</v>
+      </c>
+      <c r="AD47" s="30">
+        <f>CSV!W60</f>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="48">
+        <f>CSV!X60</f>
+        <v>90</v>
+      </c>
+      <c r="AF47" s="31">
+        <f>CSV!Y60</f>
+        <v>10000</v>
+      </c>
+      <c r="AG47" s="30">
+        <f>CSV!Z60</f>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="48">
+        <f>CSV!AA60</f>
+        <v>100</v>
+      </c>
+      <c r="AI47" s="31">
+        <f>CSV!AB60</f>
+        <v>10000</v>
+      </c>
+      <c r="AJ47" s="30">
+        <f>CSV!AC60</f>
+        <v>0</v>
+      </c>
+      <c r="AK47" s="48">
+        <f>CSV!AD60</f>
         <v>94</v>
       </c>
-      <c r="Z47" s="13">
-        <f>CSV!S66</f>
-        <v>10000</v>
-      </c>
-      <c r="AA47" s="12">
-        <f>CSV!T66</f>
-        <v>0</v>
-      </c>
-      <c r="AB47" s="77">
-        <f>CSV!U66</f>
-        <v>83</v>
-      </c>
-      <c r="AC47" s="13">
-        <f>CSV!V66</f>
-        <v>10000</v>
-      </c>
-      <c r="AD47" s="12">
-        <f>CSV!W66</f>
-        <v>0</v>
-      </c>
-      <c r="AE47" s="77">
-        <f>CSV!X66</f>
-        <v>81</v>
-      </c>
-      <c r="AF47" s="13">
-        <f>CSV!Y66</f>
-        <v>10000</v>
-      </c>
-      <c r="AG47" s="12">
-        <f>CSV!Z66</f>
-        <v>0</v>
-      </c>
-      <c r="AH47" s="77">
-        <f>CSV!AA66</f>
-        <v>98</v>
-      </c>
-      <c r="AI47" s="13">
-        <f>CSV!AB66</f>
-        <v>10000</v>
-      </c>
-      <c r="AJ47" s="12">
-        <f>CSV!AC66</f>
-        <v>0</v>
-      </c>
-      <c r="AK47" s="77">
-        <f>CSV!AD66</f>
-        <v>94</v>
-      </c>
-      <c r="AL47" s="13">
-        <f>CSV!AE66</f>
+      <c r="AL47" s="31">
+        <f>CSV!AE60</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B48" s="82">
+    <row r="48" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B48" s="87">
         <v>3</v>
       </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="43">
+      <c r="C48" s="88"/>
+      <c r="D48" s="72">
         <v>50</v>
       </c>
-      <c r="E48" s="44"/>
-      <c r="F48" s="98">
+      <c r="E48" s="73"/>
+      <c r="F48" s="59">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="G48" s="81">
+        <v>10000</v>
+      </c>
+      <c r="G48" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H48" s="81">
+      <c r="H48" s="52">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="I48" s="14">
         <f>CSV!B61</f>
@@ -9188,278 +9194,278 @@
         <v>10000</v>
       </c>
       <c r="L48" s="14">
-        <f>CSV!E67</f>
+        <f>CSV!E61</f>
         <v>0</v>
       </c>
       <c r="M48" s="27">
-        <f>CSV!F67</f>
-        <v>0</v>
+        <f>CSV!F61</f>
+        <v>46</v>
       </c>
       <c r="N48" s="15">
-        <f>CSV!G67</f>
-        <v>0</v>
+        <f>CSV!G61</f>
+        <v>10000</v>
       </c>
       <c r="O48" s="14">
-        <f>CSV!H67</f>
+        <f>CSV!H61</f>
         <v>0</v>
       </c>
       <c r="P48" s="27">
-        <f>CSV!I67</f>
-        <v>0</v>
+        <f>CSV!I61</f>
+        <v>34</v>
       </c>
       <c r="Q48" s="15">
-        <f>CSV!J67</f>
-        <v>0</v>
+        <f>CSV!J61</f>
+        <v>10000</v>
       </c>
       <c r="R48" s="14">
-        <f>CSV!K67</f>
+        <f>CSV!K61</f>
         <v>0</v>
       </c>
       <c r="S48" s="27">
-        <f>CSV!L67</f>
-        <v>0</v>
+        <f>CSV!L61</f>
+        <v>41</v>
       </c>
       <c r="T48" s="15">
-        <f>CSV!M67</f>
-        <v>0</v>
+        <f>CSV!M61</f>
+        <v>10000</v>
       </c>
       <c r="U48" s="14">
-        <f>CSV!N67</f>
+        <f>CSV!N61</f>
         <v>0</v>
       </c>
       <c r="V48" s="27">
-        <f>CSV!O67</f>
-        <v>0</v>
+        <f>CSV!O61</f>
+        <v>40</v>
       </c>
       <c r="W48" s="15">
-        <f>CSV!P67</f>
-        <v>0</v>
+        <f>CSV!P61</f>
+        <v>10000</v>
       </c>
       <c r="X48" s="14">
-        <f>CSV!Q67</f>
+        <f>CSV!Q61</f>
         <v>0</v>
       </c>
       <c r="Y48" s="27">
-        <f>CSV!R67</f>
-        <v>0</v>
+        <f>CSV!R61</f>
+        <v>30</v>
       </c>
       <c r="Z48" s="15">
-        <f>CSV!S67</f>
-        <v>0</v>
+        <f>CSV!S61</f>
+        <v>10000</v>
       </c>
       <c r="AA48" s="14">
-        <f>CSV!T67</f>
+        <f>CSV!T61</f>
         <v>0</v>
       </c>
       <c r="AB48" s="27">
-        <f>CSV!U67</f>
-        <v>0</v>
+        <f>CSV!U61</f>
+        <v>27</v>
       </c>
       <c r="AC48" s="15">
-        <f>CSV!V67</f>
-        <v>0</v>
+        <f>CSV!V61</f>
+        <v>10000</v>
       </c>
       <c r="AD48" s="14">
-        <f>CSV!W67</f>
+        <f>CSV!W61</f>
         <v>0</v>
       </c>
       <c r="AE48" s="27">
-        <f>CSV!X67</f>
-        <v>0</v>
+        <f>CSV!X61</f>
+        <v>37</v>
       </c>
       <c r="AF48" s="15">
-        <f>CSV!Y67</f>
-        <v>0</v>
+        <f>CSV!Y61</f>
+        <v>10000</v>
       </c>
       <c r="AG48" s="14">
-        <f>CSV!Z67</f>
+        <f>CSV!Z61</f>
         <v>0</v>
       </c>
       <c r="AH48" s="27">
-        <f>CSV!AA67</f>
-        <v>0</v>
+        <f>CSV!AA61</f>
+        <v>44</v>
       </c>
       <c r="AI48" s="15">
-        <f>CSV!AB67</f>
-        <v>0</v>
+        <f>CSV!AB61</f>
+        <v>10000</v>
       </c>
       <c r="AJ48" s="14">
-        <f>CSV!AC67</f>
+        <f>CSV!AC61</f>
         <v>0</v>
       </c>
       <c r="AK48" s="27">
-        <f>CSV!AD67</f>
-        <v>0</v>
+        <f>CSV!AD61</f>
+        <v>44</v>
       </c>
       <c r="AL48" s="15">
-        <f>CSV!AE67</f>
-        <v>0</v>
+        <f>CSV!AE61</f>
+        <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B49" s="84"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="38">
+    <row r="49" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B49" s="89"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="68">
         <v>75</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="96">
+      <c r="E49" s="69"/>
+      <c r="F49" s="57">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="G49" s="79">
+        <v>10000</v>
+      </c>
+      <c r="G49" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H49" s="79">
+      <c r="H49" s="50">
         <f t="shared" si="7"/>
-        <v>6.3</v>
-      </c>
-      <c r="I49" s="59">
+        <v>59.3</v>
+      </c>
+      <c r="I49" s="32">
         <f>CSV!B62</f>
         <v>0</v>
       </c>
-      <c r="J49" s="76">
+      <c r="J49" s="47">
         <f>CSV!C62</f>
         <v>63</v>
       </c>
-      <c r="K49" s="60">
+      <c r="K49" s="33">
         <f>CSV!D62</f>
         <v>10000</v>
       </c>
-      <c r="L49" s="59">
-        <f>CSV!E68</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="76">
-        <f>CSV!F68</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="60">
-        <f>CSV!G68</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="59">
-        <f>CSV!H68</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="76">
-        <f>CSV!I68</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="60">
-        <f>CSV!J68</f>
-        <v>0</v>
-      </c>
-      <c r="R49" s="59">
-        <f>CSV!K68</f>
-        <v>0</v>
-      </c>
-      <c r="S49" s="76">
-        <f>CSV!L68</f>
-        <v>0</v>
-      </c>
-      <c r="T49" s="60">
-        <f>CSV!M68</f>
-        <v>0</v>
-      </c>
-      <c r="U49" s="59">
-        <f>CSV!N68</f>
-        <v>0</v>
-      </c>
-      <c r="V49" s="76">
-        <f>CSV!O68</f>
-        <v>0</v>
-      </c>
-      <c r="W49" s="60">
-        <f>CSV!P68</f>
-        <v>0</v>
-      </c>
-      <c r="X49" s="59">
-        <f>CSV!Q68</f>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="76">
-        <f>CSV!R68</f>
-        <v>0</v>
-      </c>
-      <c r="Z49" s="60">
-        <f>CSV!S68</f>
-        <v>0</v>
-      </c>
-      <c r="AA49" s="59">
-        <f>CSV!T68</f>
-        <v>0</v>
-      </c>
-      <c r="AB49" s="76">
-        <f>CSV!U68</f>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="60">
-        <f>CSV!V68</f>
-        <v>0</v>
-      </c>
-      <c r="AD49" s="59">
-        <f>CSV!W68</f>
-        <v>0</v>
-      </c>
-      <c r="AE49" s="76">
-        <f>CSV!X68</f>
-        <v>0</v>
-      </c>
-      <c r="AF49" s="60">
-        <f>CSV!Y68</f>
-        <v>0</v>
-      </c>
-      <c r="AG49" s="59">
-        <f>CSV!Z68</f>
-        <v>0</v>
-      </c>
-      <c r="AH49" s="76">
-        <f>CSV!AA68</f>
-        <v>0</v>
-      </c>
-      <c r="AI49" s="60">
-        <f>CSV!AB68</f>
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="59">
-        <f>CSV!AC68</f>
-        <v>0</v>
-      </c>
-      <c r="AK49" s="76">
-        <f>CSV!AD68</f>
-        <v>0</v>
-      </c>
-      <c r="AL49" s="60">
-        <f>CSV!AE68</f>
-        <v>0</v>
+      <c r="L49" s="32">
+        <f>CSV!E62</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="47">
+        <f>CSV!F62</f>
+        <v>66</v>
+      </c>
+      <c r="N49" s="33">
+        <f>CSV!G62</f>
+        <v>10000</v>
+      </c>
+      <c r="O49" s="32">
+        <f>CSV!H62</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="47">
+        <f>CSV!I62</f>
+        <v>65</v>
+      </c>
+      <c r="Q49" s="33">
+        <f>CSV!J62</f>
+        <v>10000</v>
+      </c>
+      <c r="R49" s="32">
+        <f>CSV!K62</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="47">
+        <f>CSV!L62</f>
+        <v>55</v>
+      </c>
+      <c r="T49" s="33">
+        <f>CSV!M62</f>
+        <v>10000</v>
+      </c>
+      <c r="U49" s="32">
+        <f>CSV!N62</f>
+        <v>0</v>
+      </c>
+      <c r="V49" s="47">
+        <f>CSV!O62</f>
+        <v>31</v>
+      </c>
+      <c r="W49" s="33">
+        <f>CSV!P62</f>
+        <v>10000</v>
+      </c>
+      <c r="X49" s="32">
+        <f>CSV!Q62</f>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="47">
+        <f>CSV!R62</f>
+        <v>41</v>
+      </c>
+      <c r="Z49" s="33">
+        <f>CSV!S62</f>
+        <v>10000</v>
+      </c>
+      <c r="AA49" s="32">
+        <f>CSV!T62</f>
+        <v>0</v>
+      </c>
+      <c r="AB49" s="47">
+        <f>CSV!U62</f>
+        <v>69</v>
+      </c>
+      <c r="AC49" s="33">
+        <f>CSV!V62</f>
+        <v>10000</v>
+      </c>
+      <c r="AD49" s="32">
+        <f>CSV!W62</f>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="47">
+        <f>CSV!X62</f>
+        <v>67</v>
+      </c>
+      <c r="AF49" s="33">
+        <f>CSV!Y62</f>
+        <v>10000</v>
+      </c>
+      <c r="AG49" s="32">
+        <f>CSV!Z62</f>
+        <v>0</v>
+      </c>
+      <c r="AH49" s="47">
+        <f>CSV!AA62</f>
+        <v>75</v>
+      </c>
+      <c r="AI49" s="33">
+        <f>CSV!AB62</f>
+        <v>10000</v>
+      </c>
+      <c r="AJ49" s="32">
+        <f>CSV!AC62</f>
+        <v>0</v>
+      </c>
+      <c r="AK49" s="47">
+        <f>CSV!AD62</f>
+        <v>61</v>
+      </c>
+      <c r="AL49" s="33">
+        <f>CSV!AE62</f>
+        <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="86"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="40">
-        <v>100</v>
-      </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="97">
+    <row r="50" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="91"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="70">
+        <v>100</v>
+      </c>
+      <c r="E50" s="71"/>
+      <c r="F50" s="58">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="G50" s="80">
+        <v>10000</v>
+      </c>
+      <c r="G50" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H50" s="80">
+      <c r="H50" s="51">
         <f t="shared" si="7"/>
-        <v>7.7</v>
+        <v>83.9</v>
       </c>
       <c r="I50" s="12">
         <f>CSV!B63</f>
         <v>0</v>
       </c>
-      <c r="J50" s="77">
+      <c r="J50" s="48">
         <f>CSV!C63</f>
         <v>77</v>
       </c>
@@ -9467,135 +9473,135 @@
         <f>CSV!D63</f>
         <v>10000</v>
       </c>
-      <c r="L50" s="12">
-        <f>CSV!E69</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="77">
-        <f>CSV!F69</f>
-        <v>0</v>
-      </c>
-      <c r="N50" s="13">
-        <f>CSV!G69</f>
-        <v>0</v>
-      </c>
-      <c r="O50" s="12">
-        <f>CSV!H69</f>
-        <v>0</v>
-      </c>
-      <c r="P50" s="77">
-        <f>CSV!I69</f>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="13">
-        <f>CSV!J69</f>
-        <v>0</v>
-      </c>
-      <c r="R50" s="12">
-        <f>CSV!K69</f>
-        <v>0</v>
-      </c>
-      <c r="S50" s="77">
-        <f>CSV!L69</f>
-        <v>0</v>
-      </c>
-      <c r="T50" s="13">
-        <f>CSV!M69</f>
-        <v>0</v>
-      </c>
-      <c r="U50" s="12">
-        <f>CSV!N69</f>
-        <v>0</v>
-      </c>
-      <c r="V50" s="77">
-        <f>CSV!O69</f>
-        <v>0</v>
-      </c>
-      <c r="W50" s="13">
-        <f>CSV!P69</f>
-        <v>0</v>
-      </c>
-      <c r="X50" s="12">
-        <f>CSV!Q69</f>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="77">
-        <f>CSV!R69</f>
-        <v>0</v>
-      </c>
-      <c r="Z50" s="13">
-        <f>CSV!S69</f>
-        <v>0</v>
-      </c>
-      <c r="AA50" s="12">
-        <f>CSV!T69</f>
-        <v>0</v>
-      </c>
-      <c r="AB50" s="77">
-        <f>CSV!U69</f>
-        <v>0</v>
-      </c>
-      <c r="AC50" s="13">
-        <f>CSV!V69</f>
-        <v>0</v>
-      </c>
-      <c r="AD50" s="12">
-        <f>CSV!W69</f>
-        <v>0</v>
-      </c>
-      <c r="AE50" s="77">
-        <f>CSV!X69</f>
-        <v>0</v>
-      </c>
-      <c r="AF50" s="13">
-        <f>CSV!Y69</f>
-        <v>0</v>
-      </c>
-      <c r="AG50" s="12">
-        <f>CSV!Z69</f>
-        <v>0</v>
-      </c>
-      <c r="AH50" s="77">
-        <f>CSV!AA69</f>
-        <v>0</v>
-      </c>
-      <c r="AI50" s="13">
-        <f>CSV!AB69</f>
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="12">
-        <f>CSV!AC69</f>
-        <v>0</v>
-      </c>
-      <c r="AK50" s="77">
-        <f>CSV!AD69</f>
-        <v>0</v>
-      </c>
-      <c r="AL50" s="13">
-        <f>CSV!AE69</f>
-        <v>0</v>
+      <c r="L50" s="30">
+        <f>CSV!E63</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="48">
+        <f>CSV!F63</f>
+        <v>84</v>
+      </c>
+      <c r="N50" s="31">
+        <f>CSV!G63</f>
+        <v>10000</v>
+      </c>
+      <c r="O50" s="30">
+        <f>CSV!H63</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="48">
+        <f>CSV!I63</f>
+        <v>99</v>
+      </c>
+      <c r="Q50" s="31">
+        <f>CSV!J63</f>
+        <v>10000</v>
+      </c>
+      <c r="R50" s="30">
+        <f>CSV!K63</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="48">
+        <f>CSV!L63</f>
+        <v>61</v>
+      </c>
+      <c r="T50" s="31">
+        <f>CSV!M63</f>
+        <v>10000</v>
+      </c>
+      <c r="U50" s="30">
+        <f>CSV!N63</f>
+        <v>0</v>
+      </c>
+      <c r="V50" s="48">
+        <f>CSV!O63</f>
+        <v>67</v>
+      </c>
+      <c r="W50" s="31">
+        <f>CSV!P63</f>
+        <v>10000</v>
+      </c>
+      <c r="X50" s="30">
+        <f>CSV!Q63</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="48">
+        <f>CSV!R63</f>
+        <v>84</v>
+      </c>
+      <c r="Z50" s="31">
+        <f>CSV!S63</f>
+        <v>10000</v>
+      </c>
+      <c r="AA50" s="30">
+        <f>CSV!T63</f>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="48">
+        <f>CSV!U63</f>
+        <v>90</v>
+      </c>
+      <c r="AC50" s="31">
+        <f>CSV!V63</f>
+        <v>10000</v>
+      </c>
+      <c r="AD50" s="30">
+        <f>CSV!W63</f>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="48">
+        <f>CSV!X63</f>
+        <v>97</v>
+      </c>
+      <c r="AF50" s="31">
+        <f>CSV!Y63</f>
+        <v>10000</v>
+      </c>
+      <c r="AG50" s="30">
+        <f>CSV!Z63</f>
+        <v>0</v>
+      </c>
+      <c r="AH50" s="48">
+        <f>CSV!AA63</f>
+        <v>97</v>
+      </c>
+      <c r="AI50" s="31">
+        <f>CSV!AB63</f>
+        <v>10000</v>
+      </c>
+      <c r="AJ50" s="30">
+        <f>CSV!AC63</f>
+        <v>0</v>
+      </c>
+      <c r="AK50" s="48">
+        <f>CSV!AD63</f>
+        <v>83</v>
+      </c>
+      <c r="AL50" s="31">
+        <f>CSV!AE63</f>
+        <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B51" s="82">
+    <row r="51" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B51" s="87">
         <v>5</v>
       </c>
-      <c r="C51" s="83"/>
-      <c r="D51" s="36">
+      <c r="C51" s="88"/>
+      <c r="D51" s="66">
         <v>50</v>
       </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="98">
+      <c r="E51" s="67"/>
+      <c r="F51" s="59">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="G51" s="81">
+        <v>10000</v>
+      </c>
+      <c r="G51" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H51" s="81">
+      <c r="H51" s="52">
         <f t="shared" si="7"/>
-        <v>4.9000000000000004</v>
+        <v>41.2</v>
       </c>
       <c r="I51" s="14">
         <f>CSV!B64</f>
@@ -9610,278 +9616,278 @@
         <v>10000</v>
       </c>
       <c r="L51" s="14">
-        <f>CSV!E70</f>
+        <f>CSV!E64</f>
         <v>0</v>
       </c>
       <c r="M51" s="27">
-        <f>CSV!F70</f>
-        <v>0</v>
+        <f>CSV!F64</f>
+        <v>43</v>
       </c>
       <c r="N51" s="15">
-        <f>CSV!G70</f>
-        <v>0</v>
+        <f>CSV!G64</f>
+        <v>10000</v>
       </c>
       <c r="O51" s="14">
-        <f>CSV!H70</f>
+        <f>CSV!H64</f>
         <v>0</v>
       </c>
       <c r="P51" s="27">
-        <f>CSV!I70</f>
-        <v>0</v>
+        <f>CSV!I64</f>
+        <v>47</v>
       </c>
       <c r="Q51" s="15">
-        <f>CSV!J70</f>
-        <v>0</v>
+        <f>CSV!J64</f>
+        <v>10000</v>
       </c>
       <c r="R51" s="14">
-        <f>CSV!K70</f>
+        <f>CSV!K64</f>
         <v>0</v>
       </c>
       <c r="S51" s="27">
-        <f>CSV!L70</f>
-        <v>0</v>
+        <f>CSV!L64</f>
+        <v>43</v>
       </c>
       <c r="T51" s="15">
-        <f>CSV!M70</f>
-        <v>0</v>
+        <f>CSV!M64</f>
+        <v>10000</v>
       </c>
       <c r="U51" s="14">
-        <f>CSV!N70</f>
+        <f>CSV!N64</f>
         <v>0</v>
       </c>
       <c r="V51" s="27">
-        <f>CSV!O70</f>
-        <v>0</v>
+        <f>CSV!O64</f>
+        <v>35</v>
       </c>
       <c r="W51" s="15">
-        <f>CSV!P70</f>
-        <v>0</v>
+        <f>CSV!P64</f>
+        <v>10000</v>
       </c>
       <c r="X51" s="14">
-        <f>CSV!Q70</f>
+        <f>CSV!Q64</f>
         <v>0</v>
       </c>
       <c r="Y51" s="27">
-        <f>CSV!R70</f>
-        <v>0</v>
+        <f>CSV!R64</f>
+        <v>43</v>
       </c>
       <c r="Z51" s="15">
-        <f>CSV!S70</f>
-        <v>0</v>
+        <f>CSV!S64</f>
+        <v>10000</v>
       </c>
       <c r="AA51" s="14">
-        <f>CSV!T70</f>
+        <f>CSV!T64</f>
         <v>0</v>
       </c>
       <c r="AB51" s="27">
-        <f>CSV!U70</f>
-        <v>0</v>
+        <f>CSV!U64</f>
+        <v>30</v>
       </c>
       <c r="AC51" s="15">
-        <f>CSV!V70</f>
-        <v>0</v>
+        <f>CSV!V64</f>
+        <v>10000</v>
       </c>
       <c r="AD51" s="14">
-        <f>CSV!W70</f>
+        <f>CSV!W64</f>
         <v>0</v>
       </c>
       <c r="AE51" s="27">
-        <f>CSV!X70</f>
-        <v>0</v>
+        <f>CSV!X64</f>
+        <v>43</v>
       </c>
       <c r="AF51" s="15">
-        <f>CSV!Y70</f>
-        <v>0</v>
+        <f>CSV!Y64</f>
+        <v>10000</v>
       </c>
       <c r="AG51" s="14">
-        <f>CSV!Z70</f>
+        <f>CSV!Z64</f>
         <v>0</v>
       </c>
       <c r="AH51" s="27">
-        <f>CSV!AA70</f>
-        <v>0</v>
+        <f>CSV!AA64</f>
+        <v>34</v>
       </c>
       <c r="AI51" s="15">
-        <f>CSV!AB70</f>
-        <v>0</v>
+        <f>CSV!AB64</f>
+        <v>10000</v>
       </c>
       <c r="AJ51" s="14">
-        <f>CSV!AC70</f>
+        <f>CSV!AC64</f>
         <v>0</v>
       </c>
       <c r="AK51" s="27">
-        <f>CSV!AD70</f>
-        <v>0</v>
+        <f>CSV!AD64</f>
+        <v>45</v>
       </c>
       <c r="AL51" s="15">
-        <f>CSV!AE70</f>
-        <v>0</v>
+        <f>CSV!AE64</f>
+        <v>10000</v>
       </c>
     </row>
-    <row r="52" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B52" s="84"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="38">
+    <row r="52" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B52" s="89"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="68">
         <v>75</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="96">
+      <c r="E52" s="69"/>
+      <c r="F52" s="57">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="G52" s="79">
+        <v>10000</v>
+      </c>
+      <c r="G52" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H52" s="79">
+      <c r="H52" s="50">
         <f t="shared" si="7"/>
-        <v>7.3</v>
-      </c>
-      <c r="I52" s="59">
+        <v>67</v>
+      </c>
+      <c r="I52" s="32">
         <f>CSV!B65</f>
         <v>0</v>
       </c>
-      <c r="J52" s="76">
+      <c r="J52" s="47">
         <f>CSV!C65</f>
         <v>73</v>
       </c>
-      <c r="K52" s="60">
+      <c r="K52" s="33">
         <f>CSV!D65</f>
         <v>10000</v>
       </c>
-      <c r="L52" s="59">
-        <f>CSV!E71</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="76">
-        <f>CSV!F71</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="60">
-        <f>CSV!G71</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="59">
-        <f>CSV!H71</f>
-        <v>0</v>
-      </c>
-      <c r="P52" s="76">
-        <f>CSV!I71</f>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="60">
-        <f>CSV!J71</f>
-        <v>0</v>
-      </c>
-      <c r="R52" s="59">
-        <f>CSV!K71</f>
-        <v>0</v>
-      </c>
-      <c r="S52" s="76">
-        <f>CSV!L71</f>
-        <v>0</v>
-      </c>
-      <c r="T52" s="60">
-        <f>CSV!M71</f>
-        <v>0</v>
-      </c>
-      <c r="U52" s="59">
-        <f>CSV!N71</f>
-        <v>0</v>
-      </c>
-      <c r="V52" s="76">
-        <f>CSV!O71</f>
-        <v>0</v>
-      </c>
-      <c r="W52" s="60">
-        <f>CSV!P71</f>
-        <v>0</v>
-      </c>
-      <c r="X52" s="59">
-        <f>CSV!Q71</f>
-        <v>0</v>
-      </c>
-      <c r="Y52" s="76">
-        <f>CSV!R71</f>
-        <v>0</v>
-      </c>
-      <c r="Z52" s="60">
-        <f>CSV!S71</f>
-        <v>0</v>
-      </c>
-      <c r="AA52" s="59">
-        <f>CSV!T71</f>
-        <v>0</v>
-      </c>
-      <c r="AB52" s="76">
-        <f>CSV!U71</f>
-        <v>0</v>
-      </c>
-      <c r="AC52" s="60">
-        <f>CSV!V71</f>
-        <v>0</v>
-      </c>
-      <c r="AD52" s="59">
-        <f>CSV!W71</f>
-        <v>0</v>
-      </c>
-      <c r="AE52" s="76">
-        <f>CSV!X71</f>
-        <v>0</v>
-      </c>
-      <c r="AF52" s="60">
-        <f>CSV!Y71</f>
-        <v>0</v>
-      </c>
-      <c r="AG52" s="59">
-        <f>CSV!Z71</f>
-        <v>0</v>
-      </c>
-      <c r="AH52" s="76">
-        <f>CSV!AA71</f>
-        <v>0</v>
-      </c>
-      <c r="AI52" s="60">
-        <f>CSV!AB71</f>
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="59">
-        <f>CSV!AC71</f>
-        <v>0</v>
-      </c>
-      <c r="AK52" s="76">
-        <f>CSV!AD71</f>
-        <v>0</v>
-      </c>
-      <c r="AL52" s="60">
-        <f>CSV!AE71</f>
-        <v>0</v>
+      <c r="L52" s="32">
+        <f>CSV!E65</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="47">
+        <f>CSV!F65</f>
+        <v>70</v>
+      </c>
+      <c r="N52" s="33">
+        <f>CSV!G65</f>
+        <v>10000</v>
+      </c>
+      <c r="O52" s="32">
+        <f>CSV!H65</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="47">
+        <f>CSV!I65</f>
+        <v>62</v>
+      </c>
+      <c r="Q52" s="33">
+        <f>CSV!J65</f>
+        <v>10000</v>
+      </c>
+      <c r="R52" s="32">
+        <f>CSV!K65</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="47">
+        <f>CSV!L65</f>
+        <v>65</v>
+      </c>
+      <c r="T52" s="33">
+        <f>CSV!M65</f>
+        <v>10000</v>
+      </c>
+      <c r="U52" s="32">
+        <f>CSV!N65</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="47">
+        <f>CSV!O65</f>
+        <v>68</v>
+      </c>
+      <c r="W52" s="33">
+        <f>CSV!P65</f>
+        <v>10000</v>
+      </c>
+      <c r="X52" s="32">
+        <f>CSV!Q65</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="47">
+        <f>CSV!R65</f>
+        <v>73</v>
+      </c>
+      <c r="Z52" s="33">
+        <f>CSV!S65</f>
+        <v>10000</v>
+      </c>
+      <c r="AA52" s="32">
+        <f>CSV!T65</f>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="47">
+        <f>CSV!U65</f>
+        <v>73</v>
+      </c>
+      <c r="AC52" s="33">
+        <f>CSV!V65</f>
+        <v>10000</v>
+      </c>
+      <c r="AD52" s="32">
+        <f>CSV!W65</f>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="47">
+        <f>CSV!X65</f>
+        <v>72</v>
+      </c>
+      <c r="AF52" s="33">
+        <f>CSV!Y65</f>
+        <v>10000</v>
+      </c>
+      <c r="AG52" s="32">
+        <f>CSV!Z65</f>
+        <v>0</v>
+      </c>
+      <c r="AH52" s="47">
+        <f>CSV!AA65</f>
+        <v>60</v>
+      </c>
+      <c r="AI52" s="33">
+        <f>CSV!AB65</f>
+        <v>10000</v>
+      </c>
+      <c r="AJ52" s="32">
+        <f>CSV!AC65</f>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="47">
+        <f>CSV!AD65</f>
+        <v>54</v>
+      </c>
+      <c r="AL52" s="33">
+        <f>CSV!AE65</f>
+        <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="86"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="40">
-        <v>100</v>
-      </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="97">
+    <row r="53" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="91"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="70">
+        <v>100</v>
+      </c>
+      <c r="E53" s="71"/>
+      <c r="F53" s="58">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="G53" s="80">
+        <v>10000</v>
+      </c>
+      <c r="G53" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H53" s="80">
+      <c r="H53" s="51">
         <f t="shared" si="7"/>
-        <v>9.4</v>
+        <v>91.1</v>
       </c>
       <c r="I53" s="12">
         <f>CSV!B66</f>
         <v>0</v>
       </c>
-      <c r="J53" s="77">
+      <c r="J53" s="48">
         <f>CSV!C66</f>
         <v>94</v>
       </c>
@@ -9889,117 +9895,185 @@
         <f>CSV!D66</f>
         <v>10000</v>
       </c>
-      <c r="L53" s="12">
-        <f>CSV!E72</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="77">
-        <f>CSV!F72</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="13">
-        <f>CSV!G72</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="12">
-        <f>CSV!H72</f>
-        <v>0</v>
-      </c>
-      <c r="P53" s="77">
-        <f>CSV!I72</f>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="13">
-        <f>CSV!J72</f>
-        <v>0</v>
-      </c>
-      <c r="R53" s="12">
-        <f>CSV!K72</f>
-        <v>0</v>
-      </c>
-      <c r="S53" s="77">
-        <f>CSV!L72</f>
-        <v>0</v>
-      </c>
-      <c r="T53" s="13">
-        <f>CSV!M72</f>
-        <v>0</v>
-      </c>
-      <c r="U53" s="12">
-        <f>CSV!N72</f>
-        <v>0</v>
-      </c>
-      <c r="V53" s="77">
-        <f>CSV!O72</f>
-        <v>0</v>
-      </c>
-      <c r="W53" s="13">
-        <f>CSV!P72</f>
-        <v>0</v>
-      </c>
-      <c r="X53" s="12">
-        <f>CSV!Q72</f>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="77">
-        <f>CSV!R72</f>
-        <v>0</v>
-      </c>
-      <c r="Z53" s="13">
-        <f>CSV!S72</f>
-        <v>0</v>
-      </c>
-      <c r="AA53" s="12">
-        <f>CSV!T72</f>
-        <v>0</v>
-      </c>
-      <c r="AB53" s="77">
-        <f>CSV!U72</f>
-        <v>0</v>
-      </c>
-      <c r="AC53" s="13">
-        <f>CSV!V72</f>
-        <v>0</v>
-      </c>
-      <c r="AD53" s="12">
-        <f>CSV!W72</f>
-        <v>0</v>
-      </c>
-      <c r="AE53" s="77">
-        <f>CSV!X72</f>
-        <v>0</v>
-      </c>
-      <c r="AF53" s="13">
-        <f>CSV!Y72</f>
-        <v>0</v>
-      </c>
-      <c r="AG53" s="12">
-        <f>CSV!Z72</f>
-        <v>0</v>
-      </c>
-      <c r="AH53" s="77">
-        <f>CSV!AA72</f>
-        <v>0</v>
-      </c>
-      <c r="AI53" s="13">
-        <f>CSV!AB72</f>
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="12">
-        <f>CSV!AC72</f>
-        <v>0</v>
-      </c>
-      <c r="AK53" s="77">
-        <f>CSV!AD72</f>
-        <v>0</v>
-      </c>
-      <c r="AL53" s="13">
-        <f>CSV!AE72</f>
-        <v>0</v>
+      <c r="L53" s="30">
+        <f>CSV!E66</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="48">
+        <f>CSV!F66</f>
+        <v>96</v>
+      </c>
+      <c r="N53" s="31">
+        <f>CSV!G66</f>
+        <v>10000</v>
+      </c>
+      <c r="O53" s="30">
+        <f>CSV!H66</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="48">
+        <f>CSV!I66</f>
+        <v>96</v>
+      </c>
+      <c r="Q53" s="31">
+        <f>CSV!J66</f>
+        <v>10000</v>
+      </c>
+      <c r="R53" s="30">
+        <f>CSV!K66</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="48">
+        <f>CSV!L66</f>
+        <v>78</v>
+      </c>
+      <c r="T53" s="31">
+        <f>CSV!M66</f>
+        <v>10000</v>
+      </c>
+      <c r="U53" s="30">
+        <f>CSV!N66</f>
+        <v>0</v>
+      </c>
+      <c r="V53" s="48">
+        <f>CSV!O66</f>
+        <v>97</v>
+      </c>
+      <c r="W53" s="31">
+        <f>CSV!P66</f>
+        <v>10000</v>
+      </c>
+      <c r="X53" s="30">
+        <f>CSV!Q66</f>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="48">
+        <f>CSV!R66</f>
+        <v>94</v>
+      </c>
+      <c r="Z53" s="31">
+        <f>CSV!S66</f>
+        <v>10000</v>
+      </c>
+      <c r="AA53" s="30">
+        <f>CSV!T66</f>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="48">
+        <f>CSV!U66</f>
+        <v>83</v>
+      </c>
+      <c r="AC53" s="31">
+        <f>CSV!V66</f>
+        <v>10000</v>
+      </c>
+      <c r="AD53" s="30">
+        <f>CSV!W66</f>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="48">
+        <f>CSV!X66</f>
+        <v>81</v>
+      </c>
+      <c r="AF53" s="31">
+        <f>CSV!Y66</f>
+        <v>10000</v>
+      </c>
+      <c r="AG53" s="30">
+        <f>CSV!Z66</f>
+        <v>0</v>
+      </c>
+      <c r="AH53" s="48">
+        <f>CSV!AA66</f>
+        <v>98</v>
+      </c>
+      <c r="AI53" s="31">
+        <f>CSV!AB66</f>
+        <v>10000</v>
+      </c>
+      <c r="AJ53" s="30">
+        <f>CSV!AC66</f>
+        <v>0</v>
+      </c>
+      <c r="AK53" s="48">
+        <f>CSV!AD66</f>
+        <v>94</v>
+      </c>
+      <c r="AL53" s="31">
+        <f>CSV!AE66</f>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C47"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B11:C13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B48:C50"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B14:C16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AC9"/>
     <mergeCell ref="AJ9:AL9"/>
     <mergeCell ref="AD26:AF26"/>
     <mergeCell ref="AG26:AI26"/>
@@ -10016,74 +10090,6 @@
     <mergeCell ref="AJ43:AL43"/>
     <mergeCell ref="O26:Q26"/>
     <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B48:C50"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B14:C16"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C47"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AI9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10094,36 +10100,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A307837-F3FA-4E89-A802-30910238252B}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -10188,8 +10194,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -10253,7 +10259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="9">
         <v>0</v>
@@ -10316,7 +10322,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="20">
         <v>0</v>
@@ -10379,7 +10385,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="20">
         <v>0</v>
@@ -10442,7 +10448,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>0</v>
@@ -10505,7 +10511,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="9">
         <v>0</v>
@@ -10568,7 +10574,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="9">
         <v>0</v>
@@ -10631,7 +10637,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9">
         <v>0</v>
@@ -10694,7 +10700,7 @@
         <v>6639</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="9">
         <v>0</v>
@@ -10757,7 +10763,7 @@
         <v>6697</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9">
         <v>0</v>
@@ -10820,72 +10826,72 @@
         <v>7552</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="I13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="65" t="s">
+      <c r="K13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="65" t="s">
+      <c r="L13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="65" t="s">
+      <c r="M13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="65" t="s">
+      <c r="N13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="65" t="s">
+      <c r="O13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="65" t="s">
+      <c r="P13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="65" t="s">
+      <c r="Q13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="R13" s="65" t="s">
+      <c r="R13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="S13" s="65" t="s">
+      <c r="S13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="65" t="s">
+      <c r="T13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="U13" s="66" t="s">
+      <c r="U13" s="39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0</v>
       </c>
@@ -10947,7 +10953,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0</v>
       </c>
@@ -11009,7 +11015,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0</v>
       </c>
@@ -11071,7 +11077,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>0</v>
       </c>
@@ -11133,7 +11139,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0</v>
       </c>
@@ -11195,7 +11201,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>0</v>
       </c>
@@ -11257,7 +11263,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>0</v>
       </c>
@@ -11319,7 +11325,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>0</v>
       </c>
@@ -11381,7 +11387,7 @@
         <v>3681</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>0</v>
       </c>
@@ -11443,72 +11449,72 @@
         <v>5983</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="65" t="s">
+      <c r="H24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="65" t="s">
+      <c r="I24" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="65" t="s">
+      <c r="J24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="K24" s="65" t="s">
+      <c r="K24" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="65" t="s">
+      <c r="L24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="M24" s="65" t="s">
+      <c r="M24" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="N24" s="65" t="s">
+      <c r="N24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="O24" s="65" t="s">
+      <c r="O24" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="P24" s="65" t="s">
+      <c r="P24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="Q24" s="65" t="s">
+      <c r="Q24" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="R24" s="65" t="s">
+      <c r="R24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S24" s="65" t="s">
+      <c r="S24" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="T24" s="65" t="s">
+      <c r="T24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="U24" s="65" t="s">
+      <c r="U24" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>0</v>
       </c>
@@ -11570,7 +11576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>0</v>
       </c>
@@ -11632,7 +11638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>0</v>
       </c>
@@ -11694,7 +11700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>0</v>
       </c>
@@ -11756,7 +11762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>0</v>
       </c>
@@ -11818,7 +11824,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>0</v>
       </c>
@@ -11880,7 +11886,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>0</v>
       </c>
@@ -11942,7 +11948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>0</v>
       </c>
@@ -12004,7 +12010,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>0</v>
       </c>
@@ -12066,7 +12072,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -12161,7 +12167,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>0</v>
       </c>
@@ -12253,7 +12259,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>0</v>
       </c>
@@ -12345,7 +12351,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>2</v>
       </c>
@@ -12437,7 +12443,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>0</v>
       </c>
@@ -12529,7 +12535,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>3</v>
       </c>
@@ -12621,7 +12627,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>0</v>
       </c>
@@ -12713,7 +12719,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>0</v>
       </c>
@@ -12805,7 +12811,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>0</v>
       </c>
@@ -12897,7 +12903,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>0</v>
       </c>
@@ -12989,7 +12995,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -13084,7 +13090,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>0</v>
       </c>
@@ -13176,7 +13182,7 @@
         <v>7115</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>0</v>
       </c>
@@ -13268,7 +13274,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>0</v>
       </c>
@@ -13360,7 +13366,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>0</v>
       </c>
@@ -13452,7 +13458,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>0</v>
       </c>
@@ -13544,7 +13550,7 @@
         <v>9770</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>0</v>
       </c>
@@ -13636,7 +13642,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>0</v>
       </c>
@@ -13728,7 +13734,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>0</v>
       </c>
@@ -13820,7 +13826,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>0</v>
       </c>
@@ -13912,7 +13918,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -14007,7 +14013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>0</v>
       </c>
@@ -14099,7 +14105,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>0</v>
       </c>
@@ -14191,7 +14197,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>0</v>
       </c>
@@ -14283,7 +14289,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>0</v>
       </c>
@@ -14375,7 +14381,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>0</v>
       </c>
@@ -14467,7 +14473,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>0</v>
       </c>
@@ -14559,7 +14565,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>0</v>
       </c>
@@ -14651,7 +14657,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>0</v>
       </c>
@@ -14743,7 +14749,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>0</v>
       </c>
